--- a/notebooks/databases/MFRSR_History.xlsx
+++ b/notebooks/databases/MFRSR_History.xlsx
@@ -9,8 +9,8 @@
     <sheet state="visible" name="607" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="559" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="584" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="632" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="633" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="633" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="632" sheetId="8" r:id="rId10"/>
     <sheet state="visible" name="634" sheetId="9" r:id="rId11"/>
     <sheet state="visible" name="635" sheetId="10" r:id="rId12"/>
     <sheet state="visible" name="648" sheetId="11" r:id="rId13"/>
@@ -63,6 +63,62 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B11">
+      <text>
+        <t xml:space="preserve">@Gary.Hodges@noaa.gov should this read "present"?
+_Assigned to Gary Hodges - NOAA Affiliate_
+	-Hagen Telg - NOAA Affiliate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B9">
+      <text>
+        <t xml:space="preserve">@Gary.Hodges@noaa.gov should this read "present"?
+_Assigned to Gary Hodges - NOAA Affiliate_
+	-Hagen Telg - NOAA Affiliate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C16">
+      <text>
+        <t xml:space="preserve">is this right? I found this empty
+	-Hagen Telg - NOAA Affiliate</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16">
+      <text>
+        <t xml:space="preserve">is this right?
+	-Hagen Telg - NOAA Affiliate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment authorId="0" ref="A6">
       <text>
         <t xml:space="preserve">This is not the exact date! I just put this in in order to have a valid date format.
@@ -73,7 +129,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
@@ -90,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="433">
   <si>
     <t>Instrument</t>
   </si>
@@ -758,6 +814,9 @@
     <t>side-by-side; OOB</t>
   </si>
   <si>
+    <t>Pre-TCAP</t>
+  </si>
+  <si>
     <t>TCAP</t>
   </si>
   <si>
@@ -830,23 +889,20 @@
     <t>Laboratory_tests</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
     <t>WFIP2</t>
   </si>
   <si>
     <t>Licor with datalogger</t>
   </si>
   <si>
+    <t>MFRSR 663 was having problems with channel 860-nm.   Therefore, 632/633 pair replaced 663/665 until further investigation.  MFRSR/MFR10=632/633.</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFRSR/MFR10
 </t>
-  </si>
-  <si>
-    <t>Pre-TCAP</t>
-  </si>
-  <si>
-    <t>MFRSR 663 was having problems with channel 860-nm.   Therefore, 632/633 pair replaced 663/665 until further investigation.  MFRSR/MFR10=632/633.</t>
   </si>
   <si>
     <t>Owned by ARM</t>
@@ -1038,6 +1094,9 @@
     <t>LICOR</t>
   </si>
   <si>
+    <t>FPE</t>
+  </si>
+  <si>
     <t>Table; o command fixed on Dec 4, 2014</t>
   </si>
   <si>
@@ -1203,9 +1262,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kept 664 as MFRSR to continue record with temperature corrections but 662 needed to be returned for checks as to why there was spurious data points.  </t>
-  </si>
-  <si>
-    <t>comments</t>
   </si>
   <si>
     <t>Problem with MFR10 is with the board not the MFR.</t>
@@ -1532,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1771,6 +1827,9 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -9648,7 +9707,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -9675,7 +9734,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="5"/>
@@ -9702,7 +9761,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -9729,7 +9788,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -9781,7 +9840,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -9981,7 +10040,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -27071,7 +27130,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -27098,7 +27157,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -27123,7 +27182,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -27148,7 +27207,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -27198,7 +27257,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -30836,14 +30895,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61">
-        <v>42653.0</v>
-      </c>
-      <c r="B11" s="61">
-        <v>42660.0</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>65</v>
+      <c r="A11" s="63">
+        <v>42661.0</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>315</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46" t="s">
@@ -33821,7 +33880,8 @@
       <c r="D1000" s="46"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33963,7 +34023,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
@@ -33977,7 +34037,7 @@
         <v>108</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -34002,7 +34062,7 @@
         <v>42644.0</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>15</v>
@@ -34022,7 +34082,7 @@
         <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>314</v>
@@ -34041,14 +34101,14 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="61">
-        <v>42653.0</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="63">
         <v>42660.0</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>65</v>
+      <c r="B9" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>315</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>17</v>
@@ -34058,7 +34118,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -34207,7 +34268,7 @@
         <v>42100.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
@@ -34223,7 +34284,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -34264,7 +34325,7 @@
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -34276,7 +34337,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -34328,7 +34389,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -34343,7 +34404,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -34355,7 +34416,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -34373,18 +34434,18 @@
       <c r="A10" s="51">
         <v>42227.0</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="83">
         <v>42249.0</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -34399,11 +34460,11 @@
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
@@ -34417,14 +34478,14 @@
         <v>162</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N12" s="46"/>
       <c r="O12" s="46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
@@ -34441,13 +34502,13 @@
         <v>187</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -34457,7 +34518,7 @@
       <c r="B14" s="51">
         <v>42527.0</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -34488,11 +34549,11 @@
         <v>162</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N15" s="46"/>
       <c r="O15" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16">
@@ -34513,6 +34574,9 @@
     <row r="17">
       <c r="A17" s="51">
         <v>42633.0</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -37594,7 +37658,7 @@
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -37634,7 +37698,7 @@
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
@@ -37646,7 +37710,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -37672,7 +37736,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -37709,7 +37773,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -37723,10 +37787,10 @@
         <v>162</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -37752,7 +37816,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -37770,7 +37834,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -37781,7 +37845,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O9" s="5"/>
     </row>
@@ -37802,7 +37866,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -37925,7 +37989,7 @@
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -37965,7 +38029,7 @@
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -37977,7 +38041,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -38003,7 +38067,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -38040,7 +38104,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -38067,7 +38131,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
@@ -38081,10 +38145,10 @@
         <v>162</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -38110,7 +38174,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O9" s="5"/>
     </row>
@@ -38128,10 +38192,10 @@
         <v>187</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
@@ -38151,7 +38215,7 @@
         <v>17</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -38173,7 +38237,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -38231,7 +38295,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="85">
+      <c r="A2" s="86">
         <v>41680.0</v>
       </c>
       <c r="B2" s="51">
@@ -38267,14 +38331,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="86">
+      <c r="A3" s="87">
         <v>42085.0</v>
       </c>
       <c r="B3" s="51">
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -38303,7 +38367,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>42124.0</v>
       </c>
       <c r="B4" s="51">
@@ -38317,7 +38381,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="85">
+      <c r="A5" s="86">
         <v>42126.0</v>
       </c>
       <c r="B5" s="51">
@@ -38340,11 +38404,11 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="87">
+      <c r="A6" s="88">
         <v>42130.0</v>
       </c>
       <c r="B6" s="51">
@@ -38355,7 +38419,7 @@
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -38367,7 +38431,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -38382,7 +38446,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="86">
+      <c r="A7" s="87">
         <v>42156.0</v>
       </c>
       <c r="B7" s="51">
@@ -38396,7 +38460,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="85">
+      <c r="A8" s="86">
         <v>42184.0</v>
       </c>
       <c r="B8" s="51">
@@ -38406,17 +38470,17 @@
         <v>162</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="85">
+      <c r="A9" s="86">
         <v>42185.0</v>
       </c>
       <c r="B9" s="51">
@@ -38429,21 +38493,21 @@
         <v>187</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="86">
+      <c r="A10" s="87">
         <v>42200.0</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>187</v>
@@ -38460,10 +38524,10 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -38478,41 +38542,41 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="88">
+      <c r="A11" s="89">
         <v>43748.0</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="O12" s="45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="90">
+      <c r="A13" s="91">
         <v>44470.0</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>281</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="44" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -38526,18 +38590,18 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="90">
+      <c r="A14" s="91">
         <v>45597.0</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="92" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -38551,2962 +38615,2962 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
     </row>
     <row r="16">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
     </row>
     <row r="17">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
     </row>
     <row r="18">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
     </row>
     <row r="19">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
     </row>
     <row r="20">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
     </row>
     <row r="21">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
     </row>
     <row r="22">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
     </row>
     <row r="23">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
     </row>
     <row r="24">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
     </row>
     <row r="25">
-      <c r="A25" s="89"/>
+      <c r="A25" s="90"/>
     </row>
     <row r="26">
-      <c r="A26" s="89"/>
+      <c r="A26" s="90"/>
     </row>
     <row r="27">
-      <c r="A27" s="89"/>
+      <c r="A27" s="90"/>
     </row>
     <row r="28">
-      <c r="A28" s="89"/>
+      <c r="A28" s="90"/>
     </row>
     <row r="29">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
     </row>
     <row r="30">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
     </row>
     <row r="31">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
     </row>
     <row r="32">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
     </row>
     <row r="33">
-      <c r="A33" s="89"/>
+      <c r="A33" s="90"/>
     </row>
     <row r="34">
-      <c r="A34" s="89"/>
+      <c r="A34" s="90"/>
     </row>
     <row r="35">
-      <c r="A35" s="89"/>
+      <c r="A35" s="90"/>
     </row>
     <row r="36">
-      <c r="A36" s="89"/>
+      <c r="A36" s="90"/>
     </row>
     <row r="37">
-      <c r="A37" s="89"/>
+      <c r="A37" s="90"/>
     </row>
     <row r="38">
-      <c r="A38" s="89"/>
+      <c r="A38" s="90"/>
     </row>
     <row r="39">
-      <c r="A39" s="89"/>
+      <c r="A39" s="90"/>
     </row>
     <row r="40">
-      <c r="A40" s="89"/>
+      <c r="A40" s="90"/>
     </row>
     <row r="41">
-      <c r="A41" s="89"/>
+      <c r="A41" s="90"/>
     </row>
     <row r="42">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
     </row>
     <row r="43">
-      <c r="A43" s="89"/>
+      <c r="A43" s="90"/>
     </row>
     <row r="44">
-      <c r="A44" s="89"/>
+      <c r="A44" s="90"/>
     </row>
     <row r="45">
-      <c r="A45" s="89"/>
+      <c r="A45" s="90"/>
     </row>
     <row r="46">
-      <c r="A46" s="89"/>
+      <c r="A46" s="90"/>
     </row>
     <row r="47">
-      <c r="A47" s="89"/>
+      <c r="A47" s="90"/>
     </row>
     <row r="48">
-      <c r="A48" s="89"/>
+      <c r="A48" s="90"/>
     </row>
     <row r="49">
-      <c r="A49" s="89"/>
+      <c r="A49" s="90"/>
     </row>
     <row r="50">
-      <c r="A50" s="89"/>
+      <c r="A50" s="90"/>
     </row>
     <row r="51">
-      <c r="A51" s="89"/>
+      <c r="A51" s="90"/>
     </row>
     <row r="52">
-      <c r="A52" s="89"/>
+      <c r="A52" s="90"/>
     </row>
     <row r="53">
-      <c r="A53" s="89"/>
+      <c r="A53" s="90"/>
     </row>
     <row r="54">
-      <c r="A54" s="89"/>
+      <c r="A54" s="90"/>
     </row>
     <row r="55">
-      <c r="A55" s="89"/>
+      <c r="A55" s="90"/>
     </row>
     <row r="56">
-      <c r="A56" s="89"/>
+      <c r="A56" s="90"/>
     </row>
     <row r="57">
-      <c r="A57" s="89"/>
+      <c r="A57" s="90"/>
     </row>
     <row r="58">
-      <c r="A58" s="89"/>
+      <c r="A58" s="90"/>
     </row>
     <row r="59">
-      <c r="A59" s="89"/>
+      <c r="A59" s="90"/>
     </row>
     <row r="60">
-      <c r="A60" s="89"/>
+      <c r="A60" s="90"/>
     </row>
     <row r="61">
-      <c r="A61" s="89"/>
+      <c r="A61" s="90"/>
     </row>
     <row r="62">
-      <c r="A62" s="89"/>
+      <c r="A62" s="90"/>
     </row>
     <row r="63">
-      <c r="A63" s="89"/>
+      <c r="A63" s="90"/>
     </row>
     <row r="64">
-      <c r="A64" s="89"/>
+      <c r="A64" s="90"/>
     </row>
     <row r="65">
-      <c r="A65" s="89"/>
+      <c r="A65" s="90"/>
     </row>
     <row r="66">
-      <c r="A66" s="89"/>
+      <c r="A66" s="90"/>
     </row>
     <row r="67">
-      <c r="A67" s="89"/>
+      <c r="A67" s="90"/>
     </row>
     <row r="68">
-      <c r="A68" s="89"/>
+      <c r="A68" s="90"/>
     </row>
     <row r="69">
-      <c r="A69" s="89"/>
+      <c r="A69" s="90"/>
     </row>
     <row r="70">
-      <c r="A70" s="89"/>
+      <c r="A70" s="90"/>
     </row>
     <row r="71">
-      <c r="A71" s="89"/>
+      <c r="A71" s="90"/>
     </row>
     <row r="72">
-      <c r="A72" s="89"/>
+      <c r="A72" s="90"/>
     </row>
     <row r="73">
-      <c r="A73" s="89"/>
+      <c r="A73" s="90"/>
     </row>
     <row r="74">
-      <c r="A74" s="89"/>
+      <c r="A74" s="90"/>
     </row>
     <row r="75">
-      <c r="A75" s="89"/>
+      <c r="A75" s="90"/>
     </row>
     <row r="76">
-      <c r="A76" s="89"/>
+      <c r="A76" s="90"/>
     </row>
     <row r="77">
-      <c r="A77" s="89"/>
+      <c r="A77" s="90"/>
     </row>
     <row r="78">
-      <c r="A78" s="89"/>
+      <c r="A78" s="90"/>
     </row>
     <row r="79">
-      <c r="A79" s="89"/>
+      <c r="A79" s="90"/>
     </row>
     <row r="80">
-      <c r="A80" s="89"/>
+      <c r="A80" s="90"/>
     </row>
     <row r="81">
-      <c r="A81" s="89"/>
+      <c r="A81" s="90"/>
     </row>
     <row r="82">
-      <c r="A82" s="89"/>
+      <c r="A82" s="90"/>
     </row>
     <row r="83">
-      <c r="A83" s="89"/>
+      <c r="A83" s="90"/>
     </row>
     <row r="84">
-      <c r="A84" s="89"/>
+      <c r="A84" s="90"/>
     </row>
     <row r="85">
-      <c r="A85" s="89"/>
+      <c r="A85" s="90"/>
     </row>
     <row r="86">
-      <c r="A86" s="89"/>
+      <c r="A86" s="90"/>
     </row>
     <row r="87">
-      <c r="A87" s="89"/>
+      <c r="A87" s="90"/>
     </row>
     <row r="88">
-      <c r="A88" s="89"/>
+      <c r="A88" s="90"/>
     </row>
     <row r="89">
-      <c r="A89" s="89"/>
+      <c r="A89" s="90"/>
     </row>
     <row r="90">
-      <c r="A90" s="89"/>
+      <c r="A90" s="90"/>
     </row>
     <row r="91">
-      <c r="A91" s="89"/>
+      <c r="A91" s="90"/>
     </row>
     <row r="92">
-      <c r="A92" s="89"/>
+      <c r="A92" s="90"/>
     </row>
     <row r="93">
-      <c r="A93" s="89"/>
+      <c r="A93" s="90"/>
     </row>
     <row r="94">
-      <c r="A94" s="89"/>
+      <c r="A94" s="90"/>
     </row>
     <row r="95">
-      <c r="A95" s="89"/>
+      <c r="A95" s="90"/>
     </row>
     <row r="96">
-      <c r="A96" s="89"/>
+      <c r="A96" s="90"/>
     </row>
     <row r="97">
-      <c r="A97" s="89"/>
+      <c r="A97" s="90"/>
     </row>
     <row r="98">
-      <c r="A98" s="89"/>
+      <c r="A98" s="90"/>
     </row>
     <row r="99">
-      <c r="A99" s="89"/>
+      <c r="A99" s="90"/>
     </row>
     <row r="100">
-      <c r="A100" s="89"/>
+      <c r="A100" s="90"/>
     </row>
     <row r="101">
-      <c r="A101" s="89"/>
+      <c r="A101" s="90"/>
     </row>
     <row r="102">
-      <c r="A102" s="89"/>
+      <c r="A102" s="90"/>
     </row>
     <row r="103">
-      <c r="A103" s="89"/>
+      <c r="A103" s="90"/>
     </row>
     <row r="104">
-      <c r="A104" s="89"/>
+      <c r="A104" s="90"/>
     </row>
     <row r="105">
-      <c r="A105" s="89"/>
+      <c r="A105" s="90"/>
     </row>
     <row r="106">
-      <c r="A106" s="89"/>
+      <c r="A106" s="90"/>
     </row>
     <row r="107">
-      <c r="A107" s="89"/>
+      <c r="A107" s="90"/>
     </row>
     <row r="108">
-      <c r="A108" s="89"/>
+      <c r="A108" s="90"/>
     </row>
     <row r="109">
-      <c r="A109" s="89"/>
+      <c r="A109" s="90"/>
     </row>
     <row r="110">
-      <c r="A110" s="89"/>
+      <c r="A110" s="90"/>
     </row>
     <row r="111">
-      <c r="A111" s="89"/>
+      <c r="A111" s="90"/>
     </row>
     <row r="112">
-      <c r="A112" s="89"/>
+      <c r="A112" s="90"/>
     </row>
     <row r="113">
-      <c r="A113" s="89"/>
+      <c r="A113" s="90"/>
     </row>
     <row r="114">
-      <c r="A114" s="89"/>
+      <c r="A114" s="90"/>
     </row>
     <row r="115">
-      <c r="A115" s="89"/>
+      <c r="A115" s="90"/>
     </row>
     <row r="116">
-      <c r="A116" s="89"/>
+      <c r="A116" s="90"/>
     </row>
     <row r="117">
-      <c r="A117" s="89"/>
+      <c r="A117" s="90"/>
     </row>
     <row r="118">
-      <c r="A118" s="89"/>
+      <c r="A118" s="90"/>
     </row>
     <row r="119">
-      <c r="A119" s="89"/>
+      <c r="A119" s="90"/>
     </row>
     <row r="120">
-      <c r="A120" s="89"/>
+      <c r="A120" s="90"/>
     </row>
     <row r="121">
-      <c r="A121" s="89"/>
+      <c r="A121" s="90"/>
     </row>
     <row r="122">
-      <c r="A122" s="89"/>
+      <c r="A122" s="90"/>
     </row>
     <row r="123">
-      <c r="A123" s="89"/>
+      <c r="A123" s="90"/>
     </row>
     <row r="124">
-      <c r="A124" s="89"/>
+      <c r="A124" s="90"/>
     </row>
     <row r="125">
-      <c r="A125" s="89"/>
+      <c r="A125" s="90"/>
     </row>
     <row r="126">
-      <c r="A126" s="89"/>
+      <c r="A126" s="90"/>
     </row>
     <row r="127">
-      <c r="A127" s="89"/>
+      <c r="A127" s="90"/>
     </row>
     <row r="128">
-      <c r="A128" s="89"/>
+      <c r="A128" s="90"/>
     </row>
     <row r="129">
-      <c r="A129" s="89"/>
+      <c r="A129" s="90"/>
     </row>
     <row r="130">
-      <c r="A130" s="89"/>
+      <c r="A130" s="90"/>
     </row>
     <row r="131">
-      <c r="A131" s="89"/>
+      <c r="A131" s="90"/>
     </row>
     <row r="132">
-      <c r="A132" s="89"/>
+      <c r="A132" s="90"/>
     </row>
     <row r="133">
-      <c r="A133" s="89"/>
+      <c r="A133" s="90"/>
     </row>
     <row r="134">
-      <c r="A134" s="89"/>
+      <c r="A134" s="90"/>
     </row>
     <row r="135">
-      <c r="A135" s="89"/>
+      <c r="A135" s="90"/>
     </row>
     <row r="136">
-      <c r="A136" s="89"/>
+      <c r="A136" s="90"/>
     </row>
     <row r="137">
-      <c r="A137" s="89"/>
+      <c r="A137" s="90"/>
     </row>
     <row r="138">
-      <c r="A138" s="89"/>
+      <c r="A138" s="90"/>
     </row>
     <row r="139">
-      <c r="A139" s="89"/>
+      <c r="A139" s="90"/>
     </row>
     <row r="140">
-      <c r="A140" s="89"/>
+      <c r="A140" s="90"/>
     </row>
     <row r="141">
-      <c r="A141" s="89"/>
+      <c r="A141" s="90"/>
     </row>
     <row r="142">
-      <c r="A142" s="89"/>
+      <c r="A142" s="90"/>
     </row>
     <row r="143">
-      <c r="A143" s="89"/>
+      <c r="A143" s="90"/>
     </row>
     <row r="144">
-      <c r="A144" s="89"/>
+      <c r="A144" s="90"/>
     </row>
     <row r="145">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
     </row>
     <row r="146">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
     </row>
     <row r="147">
-      <c r="A147" s="89"/>
+      <c r="A147" s="90"/>
     </row>
     <row r="148">
-      <c r="A148" s="89"/>
+      <c r="A148" s="90"/>
     </row>
     <row r="149">
-      <c r="A149" s="89"/>
+      <c r="A149" s="90"/>
     </row>
     <row r="150">
-      <c r="A150" s="89"/>
+      <c r="A150" s="90"/>
     </row>
     <row r="151">
-      <c r="A151" s="89"/>
+      <c r="A151" s="90"/>
     </row>
     <row r="152">
-      <c r="A152" s="89"/>
+      <c r="A152" s="90"/>
     </row>
     <row r="153">
-      <c r="A153" s="89"/>
+      <c r="A153" s="90"/>
     </row>
     <row r="154">
-      <c r="A154" s="89"/>
+      <c r="A154" s="90"/>
     </row>
     <row r="155">
-      <c r="A155" s="89"/>
+      <c r="A155" s="90"/>
     </row>
     <row r="156">
-      <c r="A156" s="89"/>
+      <c r="A156" s="90"/>
     </row>
     <row r="157">
-      <c r="A157" s="89"/>
+      <c r="A157" s="90"/>
     </row>
     <row r="158">
-      <c r="A158" s="89"/>
+      <c r="A158" s="90"/>
     </row>
     <row r="159">
-      <c r="A159" s="89"/>
+      <c r="A159" s="90"/>
     </row>
     <row r="160">
-      <c r="A160" s="89"/>
+      <c r="A160" s="90"/>
     </row>
     <row r="161">
-      <c r="A161" s="89"/>
+      <c r="A161" s="90"/>
     </row>
     <row r="162">
-      <c r="A162" s="89"/>
+      <c r="A162" s="90"/>
     </row>
     <row r="163">
-      <c r="A163" s="89"/>
+      <c r="A163" s="90"/>
     </row>
     <row r="164">
-      <c r="A164" s="89"/>
+      <c r="A164" s="90"/>
     </row>
     <row r="165">
-      <c r="A165" s="89"/>
+      <c r="A165" s="90"/>
     </row>
     <row r="166">
-      <c r="A166" s="89"/>
+      <c r="A166" s="90"/>
     </row>
     <row r="167">
-      <c r="A167" s="89"/>
+      <c r="A167" s="90"/>
     </row>
     <row r="168">
-      <c r="A168" s="89"/>
+      <c r="A168" s="90"/>
     </row>
     <row r="169">
-      <c r="A169" s="89"/>
+      <c r="A169" s="90"/>
     </row>
     <row r="170">
-      <c r="A170" s="89"/>
+      <c r="A170" s="90"/>
     </row>
     <row r="171">
-      <c r="A171" s="89"/>
+      <c r="A171" s="90"/>
     </row>
     <row r="172">
-      <c r="A172" s="89"/>
+      <c r="A172" s="90"/>
     </row>
     <row r="173">
-      <c r="A173" s="89"/>
+      <c r="A173" s="90"/>
     </row>
     <row r="174">
-      <c r="A174" s="89"/>
+      <c r="A174" s="90"/>
     </row>
     <row r="175">
-      <c r="A175" s="89"/>
+      <c r="A175" s="90"/>
     </row>
     <row r="176">
-      <c r="A176" s="89"/>
+      <c r="A176" s="90"/>
     </row>
     <row r="177">
-      <c r="A177" s="89"/>
+      <c r="A177" s="90"/>
     </row>
     <row r="178">
-      <c r="A178" s="89"/>
+      <c r="A178" s="90"/>
     </row>
     <row r="179">
-      <c r="A179" s="89"/>
+      <c r="A179" s="90"/>
     </row>
     <row r="180">
-      <c r="A180" s="89"/>
+      <c r="A180" s="90"/>
     </row>
     <row r="181">
-      <c r="A181" s="89"/>
+      <c r="A181" s="90"/>
     </row>
     <row r="182">
-      <c r="A182" s="89"/>
+      <c r="A182" s="90"/>
     </row>
     <row r="183">
-      <c r="A183" s="89"/>
+      <c r="A183" s="90"/>
     </row>
     <row r="184">
-      <c r="A184" s="89"/>
+      <c r="A184" s="90"/>
     </row>
     <row r="185">
-      <c r="A185" s="89"/>
+      <c r="A185" s="90"/>
     </row>
     <row r="186">
-      <c r="A186" s="89"/>
+      <c r="A186" s="90"/>
     </row>
     <row r="187">
-      <c r="A187" s="89"/>
+      <c r="A187" s="90"/>
     </row>
     <row r="188">
-      <c r="A188" s="89"/>
+      <c r="A188" s="90"/>
     </row>
     <row r="189">
-      <c r="A189" s="89"/>
+      <c r="A189" s="90"/>
     </row>
     <row r="190">
-      <c r="A190" s="89"/>
+      <c r="A190" s="90"/>
     </row>
     <row r="191">
-      <c r="A191" s="89"/>
+      <c r="A191" s="90"/>
     </row>
     <row r="192">
-      <c r="A192" s="89"/>
+      <c r="A192" s="90"/>
     </row>
     <row r="193">
-      <c r="A193" s="89"/>
+      <c r="A193" s="90"/>
     </row>
     <row r="194">
-      <c r="A194" s="89"/>
+      <c r="A194" s="90"/>
     </row>
     <row r="195">
-      <c r="A195" s="89"/>
+      <c r="A195" s="90"/>
     </row>
     <row r="196">
-      <c r="A196" s="89"/>
+      <c r="A196" s="90"/>
     </row>
     <row r="197">
-      <c r="A197" s="89"/>
+      <c r="A197" s="90"/>
     </row>
     <row r="198">
-      <c r="A198" s="89"/>
+      <c r="A198" s="90"/>
     </row>
     <row r="199">
-      <c r="A199" s="89"/>
+      <c r="A199" s="90"/>
     </row>
     <row r="200">
-      <c r="A200" s="89"/>
+      <c r="A200" s="90"/>
     </row>
     <row r="201">
-      <c r="A201" s="89"/>
+      <c r="A201" s="90"/>
     </row>
     <row r="202">
-      <c r="A202" s="89"/>
+      <c r="A202" s="90"/>
     </row>
     <row r="203">
-      <c r="A203" s="89"/>
+      <c r="A203" s="90"/>
     </row>
     <row r="204">
-      <c r="A204" s="89"/>
+      <c r="A204" s="90"/>
     </row>
     <row r="205">
-      <c r="A205" s="89"/>
+      <c r="A205" s="90"/>
     </row>
     <row r="206">
-      <c r="A206" s="89"/>
+      <c r="A206" s="90"/>
     </row>
     <row r="207">
-      <c r="A207" s="89"/>
+      <c r="A207" s="90"/>
     </row>
     <row r="208">
-      <c r="A208" s="89"/>
+      <c r="A208" s="90"/>
     </row>
     <row r="209">
-      <c r="A209" s="89"/>
+      <c r="A209" s="90"/>
     </row>
     <row r="210">
-      <c r="A210" s="89"/>
+      <c r="A210" s="90"/>
     </row>
     <row r="211">
-      <c r="A211" s="89"/>
+      <c r="A211" s="90"/>
     </row>
     <row r="212">
-      <c r="A212" s="89"/>
+      <c r="A212" s="90"/>
     </row>
     <row r="213">
-      <c r="A213" s="89"/>
+      <c r="A213" s="90"/>
     </row>
     <row r="214">
-      <c r="A214" s="89"/>
+      <c r="A214" s="90"/>
     </row>
     <row r="215">
-      <c r="A215" s="89"/>
+      <c r="A215" s="90"/>
     </row>
     <row r="216">
-      <c r="A216" s="89"/>
+      <c r="A216" s="90"/>
     </row>
     <row r="217">
-      <c r="A217" s="89"/>
+      <c r="A217" s="90"/>
     </row>
     <row r="218">
-      <c r="A218" s="89"/>
+      <c r="A218" s="90"/>
     </row>
     <row r="219">
-      <c r="A219" s="89"/>
+      <c r="A219" s="90"/>
     </row>
     <row r="220">
-      <c r="A220" s="89"/>
+      <c r="A220" s="90"/>
     </row>
     <row r="221">
-      <c r="A221" s="89"/>
+      <c r="A221" s="90"/>
     </row>
     <row r="222">
-      <c r="A222" s="89"/>
+      <c r="A222" s="90"/>
     </row>
     <row r="223">
-      <c r="A223" s="89"/>
+      <c r="A223" s="90"/>
     </row>
     <row r="224">
-      <c r="A224" s="89"/>
+      <c r="A224" s="90"/>
     </row>
     <row r="225">
-      <c r="A225" s="89"/>
+      <c r="A225" s="90"/>
     </row>
     <row r="226">
-      <c r="A226" s="89"/>
+      <c r="A226" s="90"/>
     </row>
     <row r="227">
-      <c r="A227" s="89"/>
+      <c r="A227" s="90"/>
     </row>
     <row r="228">
-      <c r="A228" s="89"/>
+      <c r="A228" s="90"/>
     </row>
     <row r="229">
-      <c r="A229" s="89"/>
+      <c r="A229" s="90"/>
     </row>
     <row r="230">
-      <c r="A230" s="89"/>
+      <c r="A230" s="90"/>
     </row>
     <row r="231">
-      <c r="A231" s="89"/>
+      <c r="A231" s="90"/>
     </row>
     <row r="232">
-      <c r="A232" s="89"/>
+      <c r="A232" s="90"/>
     </row>
     <row r="233">
-      <c r="A233" s="89"/>
+      <c r="A233" s="90"/>
     </row>
     <row r="234">
-      <c r="A234" s="89"/>
+      <c r="A234" s="90"/>
     </row>
     <row r="235">
-      <c r="A235" s="89"/>
+      <c r="A235" s="90"/>
     </row>
     <row r="236">
-      <c r="A236" s="89"/>
+      <c r="A236" s="90"/>
     </row>
     <row r="237">
-      <c r="A237" s="89"/>
+      <c r="A237" s="90"/>
     </row>
     <row r="238">
-      <c r="A238" s="89"/>
+      <c r="A238" s="90"/>
     </row>
     <row r="239">
-      <c r="A239" s="89"/>
+      <c r="A239" s="90"/>
     </row>
     <row r="240">
-      <c r="A240" s="89"/>
+      <c r="A240" s="90"/>
     </row>
     <row r="241">
-      <c r="A241" s="89"/>
+      <c r="A241" s="90"/>
     </row>
     <row r="242">
-      <c r="A242" s="89"/>
+      <c r="A242" s="90"/>
     </row>
     <row r="243">
-      <c r="A243" s="89"/>
+      <c r="A243" s="90"/>
     </row>
     <row r="244">
-      <c r="A244" s="89"/>
+      <c r="A244" s="90"/>
     </row>
     <row r="245">
-      <c r="A245" s="89"/>
+      <c r="A245" s="90"/>
     </row>
     <row r="246">
-      <c r="A246" s="89"/>
+      <c r="A246" s="90"/>
     </row>
     <row r="247">
-      <c r="A247" s="89"/>
+      <c r="A247" s="90"/>
     </row>
     <row r="248">
-      <c r="A248" s="89"/>
+      <c r="A248" s="90"/>
     </row>
     <row r="249">
-      <c r="A249" s="89"/>
+      <c r="A249" s="90"/>
     </row>
     <row r="250">
-      <c r="A250" s="89"/>
+      <c r="A250" s="90"/>
     </row>
     <row r="251">
-      <c r="A251" s="89"/>
+      <c r="A251" s="90"/>
     </row>
     <row r="252">
-      <c r="A252" s="89"/>
+      <c r="A252" s="90"/>
     </row>
     <row r="253">
-      <c r="A253" s="89"/>
+      <c r="A253" s="90"/>
     </row>
     <row r="254">
-      <c r="A254" s="89"/>
+      <c r="A254" s="90"/>
     </row>
     <row r="255">
-      <c r="A255" s="89"/>
+      <c r="A255" s="90"/>
     </row>
     <row r="256">
-      <c r="A256" s="89"/>
+      <c r="A256" s="90"/>
     </row>
     <row r="257">
-      <c r="A257" s="89"/>
+      <c r="A257" s="90"/>
     </row>
     <row r="258">
-      <c r="A258" s="89"/>
+      <c r="A258" s="90"/>
     </row>
     <row r="259">
-      <c r="A259" s="89"/>
+      <c r="A259" s="90"/>
     </row>
     <row r="260">
-      <c r="A260" s="89"/>
+      <c r="A260" s="90"/>
     </row>
     <row r="261">
-      <c r="A261" s="89"/>
+      <c r="A261" s="90"/>
     </row>
     <row r="262">
-      <c r="A262" s="89"/>
+      <c r="A262" s="90"/>
     </row>
     <row r="263">
-      <c r="A263" s="89"/>
+      <c r="A263" s="90"/>
     </row>
     <row r="264">
-      <c r="A264" s="89"/>
+      <c r="A264" s="90"/>
     </row>
     <row r="265">
-      <c r="A265" s="89"/>
+      <c r="A265" s="90"/>
     </row>
     <row r="266">
-      <c r="A266" s="89"/>
+      <c r="A266" s="90"/>
     </row>
     <row r="267">
-      <c r="A267" s="89"/>
+      <c r="A267" s="90"/>
     </row>
     <row r="268">
-      <c r="A268" s="89"/>
+      <c r="A268" s="90"/>
     </row>
     <row r="269">
-      <c r="A269" s="89"/>
+      <c r="A269" s="90"/>
     </row>
     <row r="270">
-      <c r="A270" s="89"/>
+      <c r="A270" s="90"/>
     </row>
     <row r="271">
-      <c r="A271" s="89"/>
+      <c r="A271" s="90"/>
     </row>
     <row r="272">
-      <c r="A272" s="89"/>
+      <c r="A272" s="90"/>
     </row>
     <row r="273">
-      <c r="A273" s="89"/>
+      <c r="A273" s="90"/>
     </row>
     <row r="274">
-      <c r="A274" s="89"/>
+      <c r="A274" s="90"/>
     </row>
     <row r="275">
-      <c r="A275" s="89"/>
+      <c r="A275" s="90"/>
     </row>
     <row r="276">
-      <c r="A276" s="89"/>
+      <c r="A276" s="90"/>
     </row>
     <row r="277">
-      <c r="A277" s="89"/>
+      <c r="A277" s="90"/>
     </row>
     <row r="278">
-      <c r="A278" s="89"/>
+      <c r="A278" s="90"/>
     </row>
     <row r="279">
-      <c r="A279" s="89"/>
+      <c r="A279" s="90"/>
     </row>
     <row r="280">
-      <c r="A280" s="89"/>
+      <c r="A280" s="90"/>
     </row>
     <row r="281">
-      <c r="A281" s="89"/>
+      <c r="A281" s="90"/>
     </row>
     <row r="282">
-      <c r="A282" s="89"/>
+      <c r="A282" s="90"/>
     </row>
     <row r="283">
-      <c r="A283" s="89"/>
+      <c r="A283" s="90"/>
     </row>
     <row r="284">
-      <c r="A284" s="89"/>
+      <c r="A284" s="90"/>
     </row>
     <row r="285">
-      <c r="A285" s="89"/>
+      <c r="A285" s="90"/>
     </row>
     <row r="286">
-      <c r="A286" s="89"/>
+      <c r="A286" s="90"/>
     </row>
     <row r="287">
-      <c r="A287" s="89"/>
+      <c r="A287" s="90"/>
     </row>
     <row r="288">
-      <c r="A288" s="89"/>
+      <c r="A288" s="90"/>
     </row>
     <row r="289">
-      <c r="A289" s="89"/>
+      <c r="A289" s="90"/>
     </row>
     <row r="290">
-      <c r="A290" s="89"/>
+      <c r="A290" s="90"/>
     </row>
     <row r="291">
-      <c r="A291" s="89"/>
+      <c r="A291" s="90"/>
     </row>
     <row r="292">
-      <c r="A292" s="89"/>
+      <c r="A292" s="90"/>
     </row>
     <row r="293">
-      <c r="A293" s="89"/>
+      <c r="A293" s="90"/>
     </row>
     <row r="294">
-      <c r="A294" s="89"/>
+      <c r="A294" s="90"/>
     </row>
     <row r="295">
-      <c r="A295" s="89"/>
+      <c r="A295" s="90"/>
     </row>
     <row r="296">
-      <c r="A296" s="89"/>
+      <c r="A296" s="90"/>
     </row>
     <row r="297">
-      <c r="A297" s="89"/>
+      <c r="A297" s="90"/>
     </row>
     <row r="298">
-      <c r="A298" s="89"/>
+      <c r="A298" s="90"/>
     </row>
     <row r="299">
-      <c r="A299" s="89"/>
+      <c r="A299" s="90"/>
     </row>
     <row r="300">
-      <c r="A300" s="89"/>
+      <c r="A300" s="90"/>
     </row>
     <row r="301">
-      <c r="A301" s="89"/>
+      <c r="A301" s="90"/>
     </row>
     <row r="302">
-      <c r="A302" s="89"/>
+      <c r="A302" s="90"/>
     </row>
     <row r="303">
-      <c r="A303" s="89"/>
+      <c r="A303" s="90"/>
     </row>
     <row r="304">
-      <c r="A304" s="89"/>
+      <c r="A304" s="90"/>
     </row>
     <row r="305">
-      <c r="A305" s="89"/>
+      <c r="A305" s="90"/>
     </row>
     <row r="306">
-      <c r="A306" s="89"/>
+      <c r="A306" s="90"/>
     </row>
     <row r="307">
-      <c r="A307" s="89"/>
+      <c r="A307" s="90"/>
     </row>
     <row r="308">
-      <c r="A308" s="89"/>
+      <c r="A308" s="90"/>
     </row>
     <row r="309">
-      <c r="A309" s="89"/>
+      <c r="A309" s="90"/>
     </row>
     <row r="310">
-      <c r="A310" s="89"/>
+      <c r="A310" s="90"/>
     </row>
     <row r="311">
-      <c r="A311" s="89"/>
+      <c r="A311" s="90"/>
     </row>
     <row r="312">
-      <c r="A312" s="89"/>
+      <c r="A312" s="90"/>
     </row>
     <row r="313">
-      <c r="A313" s="89"/>
+      <c r="A313" s="90"/>
     </row>
     <row r="314">
-      <c r="A314" s="89"/>
+      <c r="A314" s="90"/>
     </row>
     <row r="315">
-      <c r="A315" s="89"/>
+      <c r="A315" s="90"/>
     </row>
     <row r="316">
-      <c r="A316" s="89"/>
+      <c r="A316" s="90"/>
     </row>
     <row r="317">
-      <c r="A317" s="89"/>
+      <c r="A317" s="90"/>
     </row>
     <row r="318">
-      <c r="A318" s="89"/>
+      <c r="A318" s="90"/>
     </row>
     <row r="319">
-      <c r="A319" s="89"/>
+      <c r="A319" s="90"/>
     </row>
     <row r="320">
-      <c r="A320" s="89"/>
+      <c r="A320" s="90"/>
     </row>
     <row r="321">
-      <c r="A321" s="89"/>
+      <c r="A321" s="90"/>
     </row>
     <row r="322">
-      <c r="A322" s="89"/>
+      <c r="A322" s="90"/>
     </row>
     <row r="323">
-      <c r="A323" s="89"/>
+      <c r="A323" s="90"/>
     </row>
     <row r="324">
-      <c r="A324" s="89"/>
+      <c r="A324" s="90"/>
     </row>
     <row r="325">
-      <c r="A325" s="89"/>
+      <c r="A325" s="90"/>
     </row>
     <row r="326">
-      <c r="A326" s="89"/>
+      <c r="A326" s="90"/>
     </row>
     <row r="327">
-      <c r="A327" s="89"/>
+      <c r="A327" s="90"/>
     </row>
     <row r="328">
-      <c r="A328" s="89"/>
+      <c r="A328" s="90"/>
     </row>
     <row r="329">
-      <c r="A329" s="89"/>
+      <c r="A329" s="90"/>
     </row>
     <row r="330">
-      <c r="A330" s="89"/>
+      <c r="A330" s="90"/>
     </row>
     <row r="331">
-      <c r="A331" s="89"/>
+      <c r="A331" s="90"/>
     </row>
     <row r="332">
-      <c r="A332" s="89"/>
+      <c r="A332" s="90"/>
     </row>
     <row r="333">
-      <c r="A333" s="89"/>
+      <c r="A333" s="90"/>
     </row>
     <row r="334">
-      <c r="A334" s="89"/>
+      <c r="A334" s="90"/>
     </row>
     <row r="335">
-      <c r="A335" s="89"/>
+      <c r="A335" s="90"/>
     </row>
     <row r="336">
-      <c r="A336" s="89"/>
+      <c r="A336" s="90"/>
     </row>
     <row r="337">
-      <c r="A337" s="89"/>
+      <c r="A337" s="90"/>
     </row>
     <row r="338">
-      <c r="A338" s="89"/>
+      <c r="A338" s="90"/>
     </row>
     <row r="339">
-      <c r="A339" s="89"/>
+      <c r="A339" s="90"/>
     </row>
     <row r="340">
-      <c r="A340" s="89"/>
+      <c r="A340" s="90"/>
     </row>
     <row r="341">
-      <c r="A341" s="89"/>
+      <c r="A341" s="90"/>
     </row>
     <row r="342">
-      <c r="A342" s="89"/>
+      <c r="A342" s="90"/>
     </row>
     <row r="343">
-      <c r="A343" s="89"/>
+      <c r="A343" s="90"/>
     </row>
     <row r="344">
-      <c r="A344" s="89"/>
+      <c r="A344" s="90"/>
     </row>
     <row r="345">
-      <c r="A345" s="89"/>
+      <c r="A345" s="90"/>
     </row>
     <row r="346">
-      <c r="A346" s="89"/>
+      <c r="A346" s="90"/>
     </row>
     <row r="347">
-      <c r="A347" s="89"/>
+      <c r="A347" s="90"/>
     </row>
     <row r="348">
-      <c r="A348" s="89"/>
+      <c r="A348" s="90"/>
     </row>
     <row r="349">
-      <c r="A349" s="89"/>
+      <c r="A349" s="90"/>
     </row>
     <row r="350">
-      <c r="A350" s="89"/>
+      <c r="A350" s="90"/>
     </row>
     <row r="351">
-      <c r="A351" s="89"/>
+      <c r="A351" s="90"/>
     </row>
     <row r="352">
-      <c r="A352" s="89"/>
+      <c r="A352" s="90"/>
     </row>
     <row r="353">
-      <c r="A353" s="89"/>
+      <c r="A353" s="90"/>
     </row>
     <row r="354">
-      <c r="A354" s="89"/>
+      <c r="A354" s="90"/>
     </row>
     <row r="355">
-      <c r="A355" s="89"/>
+      <c r="A355" s="90"/>
     </row>
     <row r="356">
-      <c r="A356" s="89"/>
+      <c r="A356" s="90"/>
     </row>
     <row r="357">
-      <c r="A357" s="89"/>
+      <c r="A357" s="90"/>
     </row>
     <row r="358">
-      <c r="A358" s="89"/>
+      <c r="A358" s="90"/>
     </row>
     <row r="359">
-      <c r="A359" s="89"/>
+      <c r="A359" s="90"/>
     </row>
     <row r="360">
-      <c r="A360" s="89"/>
+      <c r="A360" s="90"/>
     </row>
     <row r="361">
-      <c r="A361" s="89"/>
+      <c r="A361" s="90"/>
     </row>
     <row r="362">
-      <c r="A362" s="89"/>
+      <c r="A362" s="90"/>
     </row>
     <row r="363">
-      <c r="A363" s="89"/>
+      <c r="A363" s="90"/>
     </row>
     <row r="364">
-      <c r="A364" s="89"/>
+      <c r="A364" s="90"/>
     </row>
     <row r="365">
-      <c r="A365" s="89"/>
+      <c r="A365" s="90"/>
     </row>
     <row r="366">
-      <c r="A366" s="89"/>
+      <c r="A366" s="90"/>
     </row>
     <row r="367">
-      <c r="A367" s="89"/>
+      <c r="A367" s="90"/>
     </row>
     <row r="368">
-      <c r="A368" s="89"/>
+      <c r="A368" s="90"/>
     </row>
     <row r="369">
-      <c r="A369" s="89"/>
+      <c r="A369" s="90"/>
     </row>
     <row r="370">
-      <c r="A370" s="89"/>
+      <c r="A370" s="90"/>
     </row>
     <row r="371">
-      <c r="A371" s="89"/>
+      <c r="A371" s="90"/>
     </row>
     <row r="372">
-      <c r="A372" s="89"/>
+      <c r="A372" s="90"/>
     </row>
     <row r="373">
-      <c r="A373" s="89"/>
+      <c r="A373" s="90"/>
     </row>
     <row r="374">
-      <c r="A374" s="89"/>
+      <c r="A374" s="90"/>
     </row>
     <row r="375">
-      <c r="A375" s="89"/>
+      <c r="A375" s="90"/>
     </row>
     <row r="376">
-      <c r="A376" s="89"/>
+      <c r="A376" s="90"/>
     </row>
     <row r="377">
-      <c r="A377" s="89"/>
+      <c r="A377" s="90"/>
     </row>
     <row r="378">
-      <c r="A378" s="89"/>
+      <c r="A378" s="90"/>
     </row>
     <row r="379">
-      <c r="A379" s="89"/>
+      <c r="A379" s="90"/>
     </row>
     <row r="380">
-      <c r="A380" s="89"/>
+      <c r="A380" s="90"/>
     </row>
     <row r="381">
-      <c r="A381" s="89"/>
+      <c r="A381" s="90"/>
     </row>
     <row r="382">
-      <c r="A382" s="89"/>
+      <c r="A382" s="90"/>
     </row>
     <row r="383">
-      <c r="A383" s="89"/>
+      <c r="A383" s="90"/>
     </row>
     <row r="384">
-      <c r="A384" s="89"/>
+      <c r="A384" s="90"/>
     </row>
     <row r="385">
-      <c r="A385" s="89"/>
+      <c r="A385" s="90"/>
     </row>
     <row r="386">
-      <c r="A386" s="89"/>
+      <c r="A386" s="90"/>
     </row>
     <row r="387">
-      <c r="A387" s="89"/>
+      <c r="A387" s="90"/>
     </row>
     <row r="388">
-      <c r="A388" s="89"/>
+      <c r="A388" s="90"/>
     </row>
     <row r="389">
-      <c r="A389" s="89"/>
+      <c r="A389" s="90"/>
     </row>
     <row r="390">
-      <c r="A390" s="89"/>
+      <c r="A390" s="90"/>
     </row>
     <row r="391">
-      <c r="A391" s="89"/>
+      <c r="A391" s="90"/>
     </row>
     <row r="392">
-      <c r="A392" s="89"/>
+      <c r="A392" s="90"/>
     </row>
     <row r="393">
-      <c r="A393" s="89"/>
+      <c r="A393" s="90"/>
     </row>
     <row r="394">
-      <c r="A394" s="89"/>
+      <c r="A394" s="90"/>
     </row>
     <row r="395">
-      <c r="A395" s="89"/>
+      <c r="A395" s="90"/>
     </row>
     <row r="396">
-      <c r="A396" s="89"/>
+      <c r="A396" s="90"/>
     </row>
     <row r="397">
-      <c r="A397" s="89"/>
+      <c r="A397" s="90"/>
     </row>
     <row r="398">
-      <c r="A398" s="89"/>
+      <c r="A398" s="90"/>
     </row>
     <row r="399">
-      <c r="A399" s="89"/>
+      <c r="A399" s="90"/>
     </row>
     <row r="400">
-      <c r="A400" s="89"/>
+      <c r="A400" s="90"/>
     </row>
     <row r="401">
-      <c r="A401" s="89"/>
+      <c r="A401" s="90"/>
     </row>
     <row r="402">
-      <c r="A402" s="89"/>
+      <c r="A402" s="90"/>
     </row>
     <row r="403">
-      <c r="A403" s="89"/>
+      <c r="A403" s="90"/>
     </row>
     <row r="404">
-      <c r="A404" s="89"/>
+      <c r="A404" s="90"/>
     </row>
     <row r="405">
-      <c r="A405" s="89"/>
+      <c r="A405" s="90"/>
     </row>
     <row r="406">
-      <c r="A406" s="89"/>
+      <c r="A406" s="90"/>
     </row>
     <row r="407">
-      <c r="A407" s="89"/>
+      <c r="A407" s="90"/>
     </row>
     <row r="408">
-      <c r="A408" s="89"/>
+      <c r="A408" s="90"/>
     </row>
     <row r="409">
-      <c r="A409" s="89"/>
+      <c r="A409" s="90"/>
     </row>
     <row r="410">
-      <c r="A410" s="89"/>
+      <c r="A410" s="90"/>
     </row>
     <row r="411">
-      <c r="A411" s="89"/>
+      <c r="A411" s="90"/>
     </row>
     <row r="412">
-      <c r="A412" s="89"/>
+      <c r="A412" s="90"/>
     </row>
     <row r="413">
-      <c r="A413" s="89"/>
+      <c r="A413" s="90"/>
     </row>
     <row r="414">
-      <c r="A414" s="89"/>
+      <c r="A414" s="90"/>
     </row>
     <row r="415">
-      <c r="A415" s="89"/>
+      <c r="A415" s="90"/>
     </row>
     <row r="416">
-      <c r="A416" s="89"/>
+      <c r="A416" s="90"/>
     </row>
     <row r="417">
-      <c r="A417" s="89"/>
+      <c r="A417" s="90"/>
     </row>
     <row r="418">
-      <c r="A418" s="89"/>
+      <c r="A418" s="90"/>
     </row>
     <row r="419">
-      <c r="A419" s="89"/>
+      <c r="A419" s="90"/>
     </row>
     <row r="420">
-      <c r="A420" s="89"/>
+      <c r="A420" s="90"/>
     </row>
     <row r="421">
-      <c r="A421" s="89"/>
+      <c r="A421" s="90"/>
     </row>
     <row r="422">
-      <c r="A422" s="89"/>
+      <c r="A422" s="90"/>
     </row>
     <row r="423">
-      <c r="A423" s="89"/>
+      <c r="A423" s="90"/>
     </row>
     <row r="424">
-      <c r="A424" s="89"/>
+      <c r="A424" s="90"/>
     </row>
     <row r="425">
-      <c r="A425" s="89"/>
+      <c r="A425" s="90"/>
     </row>
     <row r="426">
-      <c r="A426" s="89"/>
+      <c r="A426" s="90"/>
     </row>
     <row r="427">
-      <c r="A427" s="89"/>
+      <c r="A427" s="90"/>
     </row>
     <row r="428">
-      <c r="A428" s="89"/>
+      <c r="A428" s="90"/>
     </row>
     <row r="429">
-      <c r="A429" s="89"/>
+      <c r="A429" s="90"/>
     </row>
     <row r="430">
-      <c r="A430" s="89"/>
+      <c r="A430" s="90"/>
     </row>
     <row r="431">
-      <c r="A431" s="89"/>
+      <c r="A431" s="90"/>
     </row>
     <row r="432">
-      <c r="A432" s="89"/>
+      <c r="A432" s="90"/>
     </row>
     <row r="433">
-      <c r="A433" s="89"/>
+      <c r="A433" s="90"/>
     </row>
     <row r="434">
-      <c r="A434" s="89"/>
+      <c r="A434" s="90"/>
     </row>
     <row r="435">
-      <c r="A435" s="89"/>
+      <c r="A435" s="90"/>
     </row>
     <row r="436">
-      <c r="A436" s="89"/>
+      <c r="A436" s="90"/>
     </row>
     <row r="437">
-      <c r="A437" s="89"/>
+      <c r="A437" s="90"/>
     </row>
     <row r="438">
-      <c r="A438" s="89"/>
+      <c r="A438" s="90"/>
     </row>
     <row r="439">
-      <c r="A439" s="89"/>
+      <c r="A439" s="90"/>
     </row>
     <row r="440">
-      <c r="A440" s="89"/>
+      <c r="A440" s="90"/>
     </row>
     <row r="441">
-      <c r="A441" s="89"/>
+      <c r="A441" s="90"/>
     </row>
     <row r="442">
-      <c r="A442" s="89"/>
+      <c r="A442" s="90"/>
     </row>
     <row r="443">
-      <c r="A443" s="89"/>
+      <c r="A443" s="90"/>
     </row>
     <row r="444">
-      <c r="A444" s="89"/>
+      <c r="A444" s="90"/>
     </row>
     <row r="445">
-      <c r="A445" s="89"/>
+      <c r="A445" s="90"/>
     </row>
     <row r="446">
-      <c r="A446" s="89"/>
+      <c r="A446" s="90"/>
     </row>
     <row r="447">
-      <c r="A447" s="89"/>
+      <c r="A447" s="90"/>
     </row>
     <row r="448">
-      <c r="A448" s="89"/>
+      <c r="A448" s="90"/>
     </row>
     <row r="449">
-      <c r="A449" s="89"/>
+      <c r="A449" s="90"/>
     </row>
     <row r="450">
-      <c r="A450" s="89"/>
+      <c r="A450" s="90"/>
     </row>
     <row r="451">
-      <c r="A451" s="89"/>
+      <c r="A451" s="90"/>
     </row>
     <row r="452">
-      <c r="A452" s="89"/>
+      <c r="A452" s="90"/>
     </row>
     <row r="453">
-      <c r="A453" s="89"/>
+      <c r="A453" s="90"/>
     </row>
     <row r="454">
-      <c r="A454" s="89"/>
+      <c r="A454" s="90"/>
     </row>
     <row r="455">
-      <c r="A455" s="89"/>
+      <c r="A455" s="90"/>
     </row>
     <row r="456">
-      <c r="A456" s="89"/>
+      <c r="A456" s="90"/>
     </row>
     <row r="457">
-      <c r="A457" s="89"/>
+      <c r="A457" s="90"/>
     </row>
     <row r="458">
-      <c r="A458" s="89"/>
+      <c r="A458" s="90"/>
     </row>
     <row r="459">
-      <c r="A459" s="89"/>
+      <c r="A459" s="90"/>
     </row>
     <row r="460">
-      <c r="A460" s="89"/>
+      <c r="A460" s="90"/>
     </row>
     <row r="461">
-      <c r="A461" s="89"/>
+      <c r="A461" s="90"/>
     </row>
     <row r="462">
-      <c r="A462" s="89"/>
+      <c r="A462" s="90"/>
     </row>
     <row r="463">
-      <c r="A463" s="89"/>
+      <c r="A463" s="90"/>
     </row>
     <row r="464">
-      <c r="A464" s="89"/>
+      <c r="A464" s="90"/>
     </row>
     <row r="465">
-      <c r="A465" s="89"/>
+      <c r="A465" s="90"/>
     </row>
     <row r="466">
-      <c r="A466" s="89"/>
+      <c r="A466" s="90"/>
     </row>
     <row r="467">
-      <c r="A467" s="89"/>
+      <c r="A467" s="90"/>
     </row>
     <row r="468">
-      <c r="A468" s="89"/>
+      <c r="A468" s="90"/>
     </row>
     <row r="469">
-      <c r="A469" s="89"/>
+      <c r="A469" s="90"/>
     </row>
     <row r="470">
-      <c r="A470" s="89"/>
+      <c r="A470" s="90"/>
     </row>
     <row r="471">
-      <c r="A471" s="89"/>
+      <c r="A471" s="90"/>
     </row>
     <row r="472">
-      <c r="A472" s="89"/>
+      <c r="A472" s="90"/>
     </row>
     <row r="473">
-      <c r="A473" s="89"/>
+      <c r="A473" s="90"/>
     </row>
     <row r="474">
-      <c r="A474" s="89"/>
+      <c r="A474" s="90"/>
     </row>
     <row r="475">
-      <c r="A475" s="89"/>
+      <c r="A475" s="90"/>
     </row>
     <row r="476">
-      <c r="A476" s="89"/>
+      <c r="A476" s="90"/>
     </row>
     <row r="477">
-      <c r="A477" s="89"/>
+      <c r="A477" s="90"/>
     </row>
     <row r="478">
-      <c r="A478" s="89"/>
+      <c r="A478" s="90"/>
     </row>
     <row r="479">
-      <c r="A479" s="89"/>
+      <c r="A479" s="90"/>
     </row>
     <row r="480">
-      <c r="A480" s="89"/>
+      <c r="A480" s="90"/>
     </row>
     <row r="481">
-      <c r="A481" s="89"/>
+      <c r="A481" s="90"/>
     </row>
     <row r="482">
-      <c r="A482" s="89"/>
+      <c r="A482" s="90"/>
     </row>
     <row r="483">
-      <c r="A483" s="89"/>
+      <c r="A483" s="90"/>
     </row>
     <row r="484">
-      <c r="A484" s="89"/>
+      <c r="A484" s="90"/>
     </row>
     <row r="485">
-      <c r="A485" s="89"/>
+      <c r="A485" s="90"/>
     </row>
     <row r="486">
-      <c r="A486" s="89"/>
+      <c r="A486" s="90"/>
     </row>
     <row r="487">
-      <c r="A487" s="89"/>
+      <c r="A487" s="90"/>
     </row>
     <row r="488">
-      <c r="A488" s="89"/>
+      <c r="A488" s="90"/>
     </row>
     <row r="489">
-      <c r="A489" s="89"/>
+      <c r="A489" s="90"/>
     </row>
     <row r="490">
-      <c r="A490" s="89"/>
+      <c r="A490" s="90"/>
     </row>
     <row r="491">
-      <c r="A491" s="89"/>
+      <c r="A491" s="90"/>
     </row>
     <row r="492">
-      <c r="A492" s="89"/>
+      <c r="A492" s="90"/>
     </row>
     <row r="493">
-      <c r="A493" s="89"/>
+      <c r="A493" s="90"/>
     </row>
     <row r="494">
-      <c r="A494" s="89"/>
+      <c r="A494" s="90"/>
     </row>
     <row r="495">
-      <c r="A495" s="89"/>
+      <c r="A495" s="90"/>
     </row>
     <row r="496">
-      <c r="A496" s="89"/>
+      <c r="A496" s="90"/>
     </row>
     <row r="497">
-      <c r="A497" s="89"/>
+      <c r="A497" s="90"/>
     </row>
     <row r="498">
-      <c r="A498" s="89"/>
+      <c r="A498" s="90"/>
     </row>
     <row r="499">
-      <c r="A499" s="89"/>
+      <c r="A499" s="90"/>
     </row>
     <row r="500">
-      <c r="A500" s="89"/>
+      <c r="A500" s="90"/>
     </row>
     <row r="501">
-      <c r="A501" s="89"/>
+      <c r="A501" s="90"/>
     </row>
     <row r="502">
-      <c r="A502" s="89"/>
+      <c r="A502" s="90"/>
     </row>
     <row r="503">
-      <c r="A503" s="89"/>
+      <c r="A503" s="90"/>
     </row>
     <row r="504">
-      <c r="A504" s="89"/>
+      <c r="A504" s="90"/>
     </row>
     <row r="505">
-      <c r="A505" s="89"/>
+      <c r="A505" s="90"/>
     </row>
     <row r="506">
-      <c r="A506" s="89"/>
+      <c r="A506" s="90"/>
     </row>
     <row r="507">
-      <c r="A507" s="89"/>
+      <c r="A507" s="90"/>
     </row>
     <row r="508">
-      <c r="A508" s="89"/>
+      <c r="A508" s="90"/>
     </row>
     <row r="509">
-      <c r="A509" s="89"/>
+      <c r="A509" s="90"/>
     </row>
     <row r="510">
-      <c r="A510" s="89"/>
+      <c r="A510" s="90"/>
     </row>
     <row r="511">
-      <c r="A511" s="89"/>
+      <c r="A511" s="90"/>
     </row>
     <row r="512">
-      <c r="A512" s="89"/>
+      <c r="A512" s="90"/>
     </row>
     <row r="513">
-      <c r="A513" s="89"/>
+      <c r="A513" s="90"/>
     </row>
     <row r="514">
-      <c r="A514" s="89"/>
+      <c r="A514" s="90"/>
     </row>
     <row r="515">
-      <c r="A515" s="89"/>
+      <c r="A515" s="90"/>
     </row>
     <row r="516">
-      <c r="A516" s="89"/>
+      <c r="A516" s="90"/>
     </row>
     <row r="517">
-      <c r="A517" s="89"/>
+      <c r="A517" s="90"/>
     </row>
     <row r="518">
-      <c r="A518" s="89"/>
+      <c r="A518" s="90"/>
     </row>
     <row r="519">
-      <c r="A519" s="89"/>
+      <c r="A519" s="90"/>
     </row>
     <row r="520">
-      <c r="A520" s="89"/>
+      <c r="A520" s="90"/>
     </row>
     <row r="521">
-      <c r="A521" s="89"/>
+      <c r="A521" s="90"/>
     </row>
     <row r="522">
-      <c r="A522" s="89"/>
+      <c r="A522" s="90"/>
     </row>
     <row r="523">
-      <c r="A523" s="89"/>
+      <c r="A523" s="90"/>
     </row>
     <row r="524">
-      <c r="A524" s="89"/>
+      <c r="A524" s="90"/>
     </row>
     <row r="525">
-      <c r="A525" s="89"/>
+      <c r="A525" s="90"/>
     </row>
     <row r="526">
-      <c r="A526" s="89"/>
+      <c r="A526" s="90"/>
     </row>
     <row r="527">
-      <c r="A527" s="89"/>
+      <c r="A527" s="90"/>
     </row>
     <row r="528">
-      <c r="A528" s="89"/>
+      <c r="A528" s="90"/>
     </row>
     <row r="529">
-      <c r="A529" s="89"/>
+      <c r="A529" s="90"/>
     </row>
     <row r="530">
-      <c r="A530" s="89"/>
+      <c r="A530" s="90"/>
     </row>
     <row r="531">
-      <c r="A531" s="89"/>
+      <c r="A531" s="90"/>
     </row>
     <row r="532">
-      <c r="A532" s="89"/>
+      <c r="A532" s="90"/>
     </row>
     <row r="533">
-      <c r="A533" s="89"/>
+      <c r="A533" s="90"/>
     </row>
     <row r="534">
-      <c r="A534" s="89"/>
+      <c r="A534" s="90"/>
     </row>
     <row r="535">
-      <c r="A535" s="89"/>
+      <c r="A535" s="90"/>
     </row>
     <row r="536">
-      <c r="A536" s="89"/>
+      <c r="A536" s="90"/>
     </row>
     <row r="537">
-      <c r="A537" s="89"/>
+      <c r="A537" s="90"/>
     </row>
     <row r="538">
-      <c r="A538" s="89"/>
+      <c r="A538" s="90"/>
     </row>
     <row r="539">
-      <c r="A539" s="89"/>
+      <c r="A539" s="90"/>
     </row>
     <row r="540">
-      <c r="A540" s="89"/>
+      <c r="A540" s="90"/>
     </row>
     <row r="541">
-      <c r="A541" s="89"/>
+      <c r="A541" s="90"/>
     </row>
     <row r="542">
-      <c r="A542" s="89"/>
+      <c r="A542" s="90"/>
     </row>
     <row r="543">
-      <c r="A543" s="89"/>
+      <c r="A543" s="90"/>
     </row>
     <row r="544">
-      <c r="A544" s="89"/>
+      <c r="A544" s="90"/>
     </row>
     <row r="545">
-      <c r="A545" s="89"/>
+      <c r="A545" s="90"/>
     </row>
     <row r="546">
-      <c r="A546" s="89"/>
+      <c r="A546" s="90"/>
     </row>
     <row r="547">
-      <c r="A547" s="89"/>
+      <c r="A547" s="90"/>
     </row>
     <row r="548">
-      <c r="A548" s="89"/>
+      <c r="A548" s="90"/>
     </row>
     <row r="549">
-      <c r="A549" s="89"/>
+      <c r="A549" s="90"/>
     </row>
     <row r="550">
-      <c r="A550" s="89"/>
+      <c r="A550" s="90"/>
     </row>
     <row r="551">
-      <c r="A551" s="89"/>
+      <c r="A551" s="90"/>
     </row>
     <row r="552">
-      <c r="A552" s="89"/>
+      <c r="A552" s="90"/>
     </row>
     <row r="553">
-      <c r="A553" s="89"/>
+      <c r="A553" s="90"/>
     </row>
     <row r="554">
-      <c r="A554" s="89"/>
+      <c r="A554" s="90"/>
     </row>
     <row r="555">
-      <c r="A555" s="89"/>
+      <c r="A555" s="90"/>
     </row>
     <row r="556">
-      <c r="A556" s="89"/>
+      <c r="A556" s="90"/>
     </row>
     <row r="557">
-      <c r="A557" s="89"/>
+      <c r="A557" s="90"/>
     </row>
     <row r="558">
-      <c r="A558" s="89"/>
+      <c r="A558" s="90"/>
     </row>
     <row r="559">
-      <c r="A559" s="89"/>
+      <c r="A559" s="90"/>
     </row>
     <row r="560">
-      <c r="A560" s="89"/>
+      <c r="A560" s="90"/>
     </row>
     <row r="561">
-      <c r="A561" s="89"/>
+      <c r="A561" s="90"/>
     </row>
     <row r="562">
-      <c r="A562" s="89"/>
+      <c r="A562" s="90"/>
     </row>
     <row r="563">
-      <c r="A563" s="89"/>
+      <c r="A563" s="90"/>
     </row>
     <row r="564">
-      <c r="A564" s="89"/>
+      <c r="A564" s="90"/>
     </row>
     <row r="565">
-      <c r="A565" s="89"/>
+      <c r="A565" s="90"/>
     </row>
     <row r="566">
-      <c r="A566" s="89"/>
+      <c r="A566" s="90"/>
     </row>
     <row r="567">
-      <c r="A567" s="89"/>
+      <c r="A567" s="90"/>
     </row>
     <row r="568">
-      <c r="A568" s="89"/>
+      <c r="A568" s="90"/>
     </row>
     <row r="569">
-      <c r="A569" s="89"/>
+      <c r="A569" s="90"/>
     </row>
     <row r="570">
-      <c r="A570" s="89"/>
+      <c r="A570" s="90"/>
     </row>
     <row r="571">
-      <c r="A571" s="89"/>
+      <c r="A571" s="90"/>
     </row>
     <row r="572">
-      <c r="A572" s="89"/>
+      <c r="A572" s="90"/>
     </row>
     <row r="573">
-      <c r="A573" s="89"/>
+      <c r="A573" s="90"/>
     </row>
     <row r="574">
-      <c r="A574" s="89"/>
+      <c r="A574" s="90"/>
     </row>
     <row r="575">
-      <c r="A575" s="89"/>
+      <c r="A575" s="90"/>
     </row>
     <row r="576">
-      <c r="A576" s="89"/>
+      <c r="A576" s="90"/>
     </row>
     <row r="577">
-      <c r="A577" s="89"/>
+      <c r="A577" s="90"/>
     </row>
     <row r="578">
-      <c r="A578" s="89"/>
+      <c r="A578" s="90"/>
     </row>
     <row r="579">
-      <c r="A579" s="89"/>
+      <c r="A579" s="90"/>
     </row>
     <row r="580">
-      <c r="A580" s="89"/>
+      <c r="A580" s="90"/>
     </row>
     <row r="581">
-      <c r="A581" s="89"/>
+      <c r="A581" s="90"/>
     </row>
     <row r="582">
-      <c r="A582" s="89"/>
+      <c r="A582" s="90"/>
     </row>
     <row r="583">
-      <c r="A583" s="89"/>
+      <c r="A583" s="90"/>
     </row>
     <row r="584">
-      <c r="A584" s="89"/>
+      <c r="A584" s="90"/>
     </row>
     <row r="585">
-      <c r="A585" s="89"/>
+      <c r="A585" s="90"/>
     </row>
     <row r="586">
-      <c r="A586" s="89"/>
+      <c r="A586" s="90"/>
     </row>
     <row r="587">
-      <c r="A587" s="89"/>
+      <c r="A587" s="90"/>
     </row>
     <row r="588">
-      <c r="A588" s="89"/>
+      <c r="A588" s="90"/>
     </row>
     <row r="589">
-      <c r="A589" s="89"/>
+      <c r="A589" s="90"/>
     </row>
     <row r="590">
-      <c r="A590" s="89"/>
+      <c r="A590" s="90"/>
     </row>
     <row r="591">
-      <c r="A591" s="89"/>
+      <c r="A591" s="90"/>
     </row>
     <row r="592">
-      <c r="A592" s="89"/>
+      <c r="A592" s="90"/>
     </row>
     <row r="593">
-      <c r="A593" s="89"/>
+      <c r="A593" s="90"/>
     </row>
     <row r="594">
-      <c r="A594" s="89"/>
+      <c r="A594" s="90"/>
     </row>
     <row r="595">
-      <c r="A595" s="89"/>
+      <c r="A595" s="90"/>
     </row>
     <row r="596">
-      <c r="A596" s="89"/>
+      <c r="A596" s="90"/>
     </row>
     <row r="597">
-      <c r="A597" s="89"/>
+      <c r="A597" s="90"/>
     </row>
     <row r="598">
-      <c r="A598" s="89"/>
+      <c r="A598" s="90"/>
     </row>
     <row r="599">
-      <c r="A599" s="89"/>
+      <c r="A599" s="90"/>
     </row>
     <row r="600">
-      <c r="A600" s="89"/>
+      <c r="A600" s="90"/>
     </row>
     <row r="601">
-      <c r="A601" s="89"/>
+      <c r="A601" s="90"/>
     </row>
     <row r="602">
-      <c r="A602" s="89"/>
+      <c r="A602" s="90"/>
     </row>
     <row r="603">
-      <c r="A603" s="89"/>
+      <c r="A603" s="90"/>
     </row>
     <row r="604">
-      <c r="A604" s="89"/>
+      <c r="A604" s="90"/>
     </row>
     <row r="605">
-      <c r="A605" s="89"/>
+      <c r="A605" s="90"/>
     </row>
     <row r="606">
-      <c r="A606" s="89"/>
+      <c r="A606" s="90"/>
     </row>
     <row r="607">
-      <c r="A607" s="89"/>
+      <c r="A607" s="90"/>
     </row>
     <row r="608">
-      <c r="A608" s="89"/>
+      <c r="A608" s="90"/>
     </row>
     <row r="609">
-      <c r="A609" s="89"/>
+      <c r="A609" s="90"/>
     </row>
     <row r="610">
-      <c r="A610" s="89"/>
+      <c r="A610" s="90"/>
     </row>
     <row r="611">
-      <c r="A611" s="89"/>
+      <c r="A611" s="90"/>
     </row>
     <row r="612">
-      <c r="A612" s="89"/>
+      <c r="A612" s="90"/>
     </row>
     <row r="613">
-      <c r="A613" s="89"/>
+      <c r="A613" s="90"/>
     </row>
     <row r="614">
-      <c r="A614" s="89"/>
+      <c r="A614" s="90"/>
     </row>
     <row r="615">
-      <c r="A615" s="89"/>
+      <c r="A615" s="90"/>
     </row>
     <row r="616">
-      <c r="A616" s="89"/>
+      <c r="A616" s="90"/>
     </row>
     <row r="617">
-      <c r="A617" s="89"/>
+      <c r="A617" s="90"/>
     </row>
     <row r="618">
-      <c r="A618" s="89"/>
+      <c r="A618" s="90"/>
     </row>
     <row r="619">
-      <c r="A619" s="89"/>
+      <c r="A619" s="90"/>
     </row>
     <row r="620">
-      <c r="A620" s="89"/>
+      <c r="A620" s="90"/>
     </row>
     <row r="621">
-      <c r="A621" s="89"/>
+      <c r="A621" s="90"/>
     </row>
     <row r="622">
-      <c r="A622" s="89"/>
+      <c r="A622" s="90"/>
     </row>
     <row r="623">
-      <c r="A623" s="89"/>
+      <c r="A623" s="90"/>
     </row>
     <row r="624">
-      <c r="A624" s="89"/>
+      <c r="A624" s="90"/>
     </row>
     <row r="625">
-      <c r="A625" s="89"/>
+      <c r="A625" s="90"/>
     </row>
     <row r="626">
-      <c r="A626" s="89"/>
+      <c r="A626" s="90"/>
     </row>
     <row r="627">
-      <c r="A627" s="89"/>
+      <c r="A627" s="90"/>
     </row>
     <row r="628">
-      <c r="A628" s="89"/>
+      <c r="A628" s="90"/>
     </row>
     <row r="629">
-      <c r="A629" s="89"/>
+      <c r="A629" s="90"/>
     </row>
     <row r="630">
-      <c r="A630" s="89"/>
+      <c r="A630" s="90"/>
     </row>
     <row r="631">
-      <c r="A631" s="89"/>
+      <c r="A631" s="90"/>
     </row>
     <row r="632">
-      <c r="A632" s="89"/>
+      <c r="A632" s="90"/>
     </row>
     <row r="633">
-      <c r="A633" s="89"/>
+      <c r="A633" s="90"/>
     </row>
     <row r="634">
-      <c r="A634" s="89"/>
+      <c r="A634" s="90"/>
     </row>
     <row r="635">
-      <c r="A635" s="89"/>
+      <c r="A635" s="90"/>
     </row>
     <row r="636">
-      <c r="A636" s="89"/>
+      <c r="A636" s="90"/>
     </row>
     <row r="637">
-      <c r="A637" s="89"/>
+      <c r="A637" s="90"/>
     </row>
     <row r="638">
-      <c r="A638" s="89"/>
+      <c r="A638" s="90"/>
     </row>
     <row r="639">
-      <c r="A639" s="89"/>
+      <c r="A639" s="90"/>
     </row>
     <row r="640">
-      <c r="A640" s="89"/>
+      <c r="A640" s="90"/>
     </row>
     <row r="641">
-      <c r="A641" s="89"/>
+      <c r="A641" s="90"/>
     </row>
     <row r="642">
-      <c r="A642" s="89"/>
+      <c r="A642" s="90"/>
     </row>
     <row r="643">
-      <c r="A643" s="89"/>
+      <c r="A643" s="90"/>
     </row>
     <row r="644">
-      <c r="A644" s="89"/>
+      <c r="A644" s="90"/>
     </row>
     <row r="645">
-      <c r="A645" s="89"/>
+      <c r="A645" s="90"/>
     </row>
     <row r="646">
-      <c r="A646" s="89"/>
+      <c r="A646" s="90"/>
     </row>
     <row r="647">
-      <c r="A647" s="89"/>
+      <c r="A647" s="90"/>
     </row>
     <row r="648">
-      <c r="A648" s="89"/>
+      <c r="A648" s="90"/>
     </row>
     <row r="649">
-      <c r="A649" s="89"/>
+      <c r="A649" s="90"/>
     </row>
     <row r="650">
-      <c r="A650" s="89"/>
+      <c r="A650" s="90"/>
     </row>
     <row r="651">
-      <c r="A651" s="89"/>
+      <c r="A651" s="90"/>
     </row>
     <row r="652">
-      <c r="A652" s="89"/>
+      <c r="A652" s="90"/>
     </row>
     <row r="653">
-      <c r="A653" s="89"/>
+      <c r="A653" s="90"/>
     </row>
     <row r="654">
-      <c r="A654" s="89"/>
+      <c r="A654" s="90"/>
     </row>
     <row r="655">
-      <c r="A655" s="89"/>
+      <c r="A655" s="90"/>
     </row>
     <row r="656">
-      <c r="A656" s="89"/>
+      <c r="A656" s="90"/>
     </row>
     <row r="657">
-      <c r="A657" s="89"/>
+      <c r="A657" s="90"/>
     </row>
     <row r="658">
-      <c r="A658" s="89"/>
+      <c r="A658" s="90"/>
     </row>
     <row r="659">
-      <c r="A659" s="89"/>
+      <c r="A659" s="90"/>
     </row>
     <row r="660">
-      <c r="A660" s="89"/>
+      <c r="A660" s="90"/>
     </row>
     <row r="661">
-      <c r="A661" s="89"/>
+      <c r="A661" s="90"/>
     </row>
     <row r="662">
-      <c r="A662" s="89"/>
+      <c r="A662" s="90"/>
     </row>
     <row r="663">
-      <c r="A663" s="89"/>
+      <c r="A663" s="90"/>
     </row>
     <row r="664">
-      <c r="A664" s="89"/>
+      <c r="A664" s="90"/>
     </row>
     <row r="665">
-      <c r="A665" s="89"/>
+      <c r="A665" s="90"/>
     </row>
     <row r="666">
-      <c r="A666" s="89"/>
+      <c r="A666" s="90"/>
     </row>
     <row r="667">
-      <c r="A667" s="89"/>
+      <c r="A667" s="90"/>
     </row>
     <row r="668">
-      <c r="A668" s="89"/>
+      <c r="A668" s="90"/>
     </row>
     <row r="669">
-      <c r="A669" s="89"/>
+      <c r="A669" s="90"/>
     </row>
     <row r="670">
-      <c r="A670" s="89"/>
+      <c r="A670" s="90"/>
     </row>
     <row r="671">
-      <c r="A671" s="89"/>
+      <c r="A671" s="90"/>
     </row>
     <row r="672">
-      <c r="A672" s="89"/>
+      <c r="A672" s="90"/>
     </row>
     <row r="673">
-      <c r="A673" s="89"/>
+      <c r="A673" s="90"/>
     </row>
     <row r="674">
-      <c r="A674" s="89"/>
+      <c r="A674" s="90"/>
     </row>
     <row r="675">
-      <c r="A675" s="89"/>
+      <c r="A675" s="90"/>
     </row>
     <row r="676">
-      <c r="A676" s="89"/>
+      <c r="A676" s="90"/>
     </row>
     <row r="677">
-      <c r="A677" s="89"/>
+      <c r="A677" s="90"/>
     </row>
     <row r="678">
-      <c r="A678" s="89"/>
+      <c r="A678" s="90"/>
     </row>
     <row r="679">
-      <c r="A679" s="89"/>
+      <c r="A679" s="90"/>
     </row>
     <row r="680">
-      <c r="A680" s="89"/>
+      <c r="A680" s="90"/>
     </row>
     <row r="681">
-      <c r="A681" s="89"/>
+      <c r="A681" s="90"/>
     </row>
     <row r="682">
-      <c r="A682" s="89"/>
+      <c r="A682" s="90"/>
     </row>
     <row r="683">
-      <c r="A683" s="89"/>
+      <c r="A683" s="90"/>
     </row>
     <row r="684">
-      <c r="A684" s="89"/>
+      <c r="A684" s="90"/>
     </row>
     <row r="685">
-      <c r="A685" s="89"/>
+      <c r="A685" s="90"/>
     </row>
     <row r="686">
-      <c r="A686" s="89"/>
+      <c r="A686" s="90"/>
     </row>
     <row r="687">
-      <c r="A687" s="89"/>
+      <c r="A687" s="90"/>
     </row>
     <row r="688">
-      <c r="A688" s="89"/>
+      <c r="A688" s="90"/>
     </row>
     <row r="689">
-      <c r="A689" s="89"/>
+      <c r="A689" s="90"/>
     </row>
     <row r="690">
-      <c r="A690" s="89"/>
+      <c r="A690" s="90"/>
     </row>
     <row r="691">
-      <c r="A691" s="89"/>
+      <c r="A691" s="90"/>
     </row>
     <row r="692">
-      <c r="A692" s="89"/>
+      <c r="A692" s="90"/>
     </row>
     <row r="693">
-      <c r="A693" s="89"/>
+      <c r="A693" s="90"/>
     </row>
     <row r="694">
-      <c r="A694" s="89"/>
+      <c r="A694" s="90"/>
     </row>
     <row r="695">
-      <c r="A695" s="89"/>
+      <c r="A695" s="90"/>
     </row>
     <row r="696">
-      <c r="A696" s="89"/>
+      <c r="A696" s="90"/>
     </row>
     <row r="697">
-      <c r="A697" s="89"/>
+      <c r="A697" s="90"/>
     </row>
     <row r="698">
-      <c r="A698" s="89"/>
+      <c r="A698" s="90"/>
     </row>
     <row r="699">
-      <c r="A699" s="89"/>
+      <c r="A699" s="90"/>
     </row>
     <row r="700">
-      <c r="A700" s="89"/>
+      <c r="A700" s="90"/>
     </row>
     <row r="701">
-      <c r="A701" s="89"/>
+      <c r="A701" s="90"/>
     </row>
     <row r="702">
-      <c r="A702" s="89"/>
+      <c r="A702" s="90"/>
     </row>
     <row r="703">
-      <c r="A703" s="89"/>
+      <c r="A703" s="90"/>
     </row>
     <row r="704">
-      <c r="A704" s="89"/>
+      <c r="A704" s="90"/>
     </row>
     <row r="705">
-      <c r="A705" s="89"/>
+      <c r="A705" s="90"/>
     </row>
     <row r="706">
-      <c r="A706" s="89"/>
+      <c r="A706" s="90"/>
     </row>
     <row r="707">
-      <c r="A707" s="89"/>
+      <c r="A707" s="90"/>
     </row>
     <row r="708">
-      <c r="A708" s="89"/>
+      <c r="A708" s="90"/>
     </row>
     <row r="709">
-      <c r="A709" s="89"/>
+      <c r="A709" s="90"/>
     </row>
     <row r="710">
-      <c r="A710" s="89"/>
+      <c r="A710" s="90"/>
     </row>
     <row r="711">
-      <c r="A711" s="89"/>
+      <c r="A711" s="90"/>
     </row>
     <row r="712">
-      <c r="A712" s="89"/>
+      <c r="A712" s="90"/>
     </row>
     <row r="713">
-      <c r="A713" s="89"/>
+      <c r="A713" s="90"/>
     </row>
     <row r="714">
-      <c r="A714" s="89"/>
+      <c r="A714" s="90"/>
     </row>
     <row r="715">
-      <c r="A715" s="89"/>
+      <c r="A715" s="90"/>
     </row>
     <row r="716">
-      <c r="A716" s="89"/>
+      <c r="A716" s="90"/>
     </row>
     <row r="717">
-      <c r="A717" s="89"/>
+      <c r="A717" s="90"/>
     </row>
     <row r="718">
-      <c r="A718" s="89"/>
+      <c r="A718" s="90"/>
     </row>
     <row r="719">
-      <c r="A719" s="89"/>
+      <c r="A719" s="90"/>
     </row>
     <row r="720">
-      <c r="A720" s="89"/>
+      <c r="A720" s="90"/>
     </row>
     <row r="721">
-      <c r="A721" s="89"/>
+      <c r="A721" s="90"/>
     </row>
     <row r="722">
-      <c r="A722" s="89"/>
+      <c r="A722" s="90"/>
     </row>
     <row r="723">
-      <c r="A723" s="89"/>
+      <c r="A723" s="90"/>
     </row>
     <row r="724">
-      <c r="A724" s="89"/>
+      <c r="A724" s="90"/>
     </row>
     <row r="725">
-      <c r="A725" s="89"/>
+      <c r="A725" s="90"/>
     </row>
     <row r="726">
-      <c r="A726" s="89"/>
+      <c r="A726" s="90"/>
     </row>
     <row r="727">
-      <c r="A727" s="89"/>
+      <c r="A727" s="90"/>
     </row>
     <row r="728">
-      <c r="A728" s="89"/>
+      <c r="A728" s="90"/>
     </row>
     <row r="729">
-      <c r="A729" s="89"/>
+      <c r="A729" s="90"/>
     </row>
     <row r="730">
-      <c r="A730" s="89"/>
+      <c r="A730" s="90"/>
     </row>
     <row r="731">
-      <c r="A731" s="89"/>
+      <c r="A731" s="90"/>
     </row>
     <row r="732">
-      <c r="A732" s="89"/>
+      <c r="A732" s="90"/>
     </row>
     <row r="733">
-      <c r="A733" s="89"/>
+      <c r="A733" s="90"/>
     </row>
     <row r="734">
-      <c r="A734" s="89"/>
+      <c r="A734" s="90"/>
     </row>
     <row r="735">
-      <c r="A735" s="89"/>
+      <c r="A735" s="90"/>
     </row>
     <row r="736">
-      <c r="A736" s="89"/>
+      <c r="A736" s="90"/>
     </row>
     <row r="737">
-      <c r="A737" s="89"/>
+      <c r="A737" s="90"/>
     </row>
     <row r="738">
-      <c r="A738" s="89"/>
+      <c r="A738" s="90"/>
     </row>
     <row r="739">
-      <c r="A739" s="89"/>
+      <c r="A739" s="90"/>
     </row>
     <row r="740">
-      <c r="A740" s="89"/>
+      <c r="A740" s="90"/>
     </row>
     <row r="741">
-      <c r="A741" s="89"/>
+      <c r="A741" s="90"/>
     </row>
     <row r="742">
-      <c r="A742" s="89"/>
+      <c r="A742" s="90"/>
     </row>
     <row r="743">
-      <c r="A743" s="89"/>
+      <c r="A743" s="90"/>
     </row>
     <row r="744">
-      <c r="A744" s="89"/>
+      <c r="A744" s="90"/>
     </row>
     <row r="745">
-      <c r="A745" s="89"/>
+      <c r="A745" s="90"/>
     </row>
     <row r="746">
-      <c r="A746" s="89"/>
+      <c r="A746" s="90"/>
     </row>
     <row r="747">
-      <c r="A747" s="89"/>
+      <c r="A747" s="90"/>
     </row>
     <row r="748">
-      <c r="A748" s="89"/>
+      <c r="A748" s="90"/>
     </row>
     <row r="749">
-      <c r="A749" s="89"/>
+      <c r="A749" s="90"/>
     </row>
     <row r="750">
-      <c r="A750" s="89"/>
+      <c r="A750" s="90"/>
     </row>
     <row r="751">
-      <c r="A751" s="89"/>
+      <c r="A751" s="90"/>
     </row>
     <row r="752">
-      <c r="A752" s="89"/>
+      <c r="A752" s="90"/>
     </row>
     <row r="753">
-      <c r="A753" s="89"/>
+      <c r="A753" s="90"/>
     </row>
     <row r="754">
-      <c r="A754" s="89"/>
+      <c r="A754" s="90"/>
     </row>
     <row r="755">
-      <c r="A755" s="89"/>
+      <c r="A755" s="90"/>
     </row>
     <row r="756">
-      <c r="A756" s="89"/>
+      <c r="A756" s="90"/>
     </row>
     <row r="757">
-      <c r="A757" s="89"/>
+      <c r="A757" s="90"/>
     </row>
     <row r="758">
-      <c r="A758" s="89"/>
+      <c r="A758" s="90"/>
     </row>
     <row r="759">
-      <c r="A759" s="89"/>
+      <c r="A759" s="90"/>
     </row>
     <row r="760">
-      <c r="A760" s="89"/>
+      <c r="A760" s="90"/>
     </row>
     <row r="761">
-      <c r="A761" s="89"/>
+      <c r="A761" s="90"/>
     </row>
     <row r="762">
-      <c r="A762" s="89"/>
+      <c r="A762" s="90"/>
     </row>
     <row r="763">
-      <c r="A763" s="89"/>
+      <c r="A763" s="90"/>
     </row>
     <row r="764">
-      <c r="A764" s="89"/>
+      <c r="A764" s="90"/>
     </row>
     <row r="765">
-      <c r="A765" s="89"/>
+      <c r="A765" s="90"/>
     </row>
     <row r="766">
-      <c r="A766" s="89"/>
+      <c r="A766" s="90"/>
     </row>
     <row r="767">
-      <c r="A767" s="89"/>
+      <c r="A767" s="90"/>
     </row>
     <row r="768">
-      <c r="A768" s="89"/>
+      <c r="A768" s="90"/>
     </row>
     <row r="769">
-      <c r="A769" s="89"/>
+      <c r="A769" s="90"/>
     </row>
     <row r="770">
-      <c r="A770" s="89"/>
+      <c r="A770" s="90"/>
     </row>
     <row r="771">
-      <c r="A771" s="89"/>
+      <c r="A771" s="90"/>
     </row>
     <row r="772">
-      <c r="A772" s="89"/>
+      <c r="A772" s="90"/>
     </row>
     <row r="773">
-      <c r="A773" s="89"/>
+      <c r="A773" s="90"/>
     </row>
     <row r="774">
-      <c r="A774" s="89"/>
+      <c r="A774" s="90"/>
     </row>
     <row r="775">
-      <c r="A775" s="89"/>
+      <c r="A775" s="90"/>
     </row>
     <row r="776">
-      <c r="A776" s="89"/>
+      <c r="A776" s="90"/>
     </row>
     <row r="777">
-      <c r="A777" s="89"/>
+      <c r="A777" s="90"/>
     </row>
     <row r="778">
-      <c r="A778" s="89"/>
+      <c r="A778" s="90"/>
     </row>
     <row r="779">
-      <c r="A779" s="89"/>
+      <c r="A779" s="90"/>
     </row>
     <row r="780">
-      <c r="A780" s="89"/>
+      <c r="A780" s="90"/>
     </row>
     <row r="781">
-      <c r="A781" s="89"/>
+      <c r="A781" s="90"/>
     </row>
     <row r="782">
-      <c r="A782" s="89"/>
+      <c r="A782" s="90"/>
     </row>
     <row r="783">
-      <c r="A783" s="89"/>
+      <c r="A783" s="90"/>
     </row>
     <row r="784">
-      <c r="A784" s="89"/>
+      <c r="A784" s="90"/>
     </row>
     <row r="785">
-      <c r="A785" s="89"/>
+      <c r="A785" s="90"/>
     </row>
     <row r="786">
-      <c r="A786" s="89"/>
+      <c r="A786" s="90"/>
     </row>
     <row r="787">
-      <c r="A787" s="89"/>
+      <c r="A787" s="90"/>
     </row>
     <row r="788">
-      <c r="A788" s="89"/>
+      <c r="A788" s="90"/>
     </row>
     <row r="789">
-      <c r="A789" s="89"/>
+      <c r="A789" s="90"/>
     </row>
     <row r="790">
-      <c r="A790" s="89"/>
+      <c r="A790" s="90"/>
     </row>
     <row r="791">
-      <c r="A791" s="89"/>
+      <c r="A791" s="90"/>
     </row>
     <row r="792">
-      <c r="A792" s="89"/>
+      <c r="A792" s="90"/>
     </row>
     <row r="793">
-      <c r="A793" s="89"/>
+      <c r="A793" s="90"/>
     </row>
     <row r="794">
-      <c r="A794" s="89"/>
+      <c r="A794" s="90"/>
     </row>
     <row r="795">
-      <c r="A795" s="89"/>
+      <c r="A795" s="90"/>
     </row>
     <row r="796">
-      <c r="A796" s="89"/>
+      <c r="A796" s="90"/>
     </row>
     <row r="797">
-      <c r="A797" s="89"/>
+      <c r="A797" s="90"/>
     </row>
     <row r="798">
-      <c r="A798" s="89"/>
+      <c r="A798" s="90"/>
     </row>
     <row r="799">
-      <c r="A799" s="89"/>
+      <c r="A799" s="90"/>
     </row>
     <row r="800">
-      <c r="A800" s="89"/>
+      <c r="A800" s="90"/>
     </row>
     <row r="801">
-      <c r="A801" s="89"/>
+      <c r="A801" s="90"/>
     </row>
     <row r="802">
-      <c r="A802" s="89"/>
+      <c r="A802" s="90"/>
     </row>
     <row r="803">
-      <c r="A803" s="89"/>
+      <c r="A803" s="90"/>
     </row>
     <row r="804">
-      <c r="A804" s="89"/>
+      <c r="A804" s="90"/>
     </row>
     <row r="805">
-      <c r="A805" s="89"/>
+      <c r="A805" s="90"/>
     </row>
     <row r="806">
-      <c r="A806" s="89"/>
+      <c r="A806" s="90"/>
     </row>
     <row r="807">
-      <c r="A807" s="89"/>
+      <c r="A807" s="90"/>
     </row>
     <row r="808">
-      <c r="A808" s="89"/>
+      <c r="A808" s="90"/>
     </row>
     <row r="809">
-      <c r="A809" s="89"/>
+      <c r="A809" s="90"/>
     </row>
     <row r="810">
-      <c r="A810" s="89"/>
+      <c r="A810" s="90"/>
     </row>
     <row r="811">
-      <c r="A811" s="89"/>
+      <c r="A811" s="90"/>
     </row>
     <row r="812">
-      <c r="A812" s="89"/>
+      <c r="A812" s="90"/>
     </row>
     <row r="813">
-      <c r="A813" s="89"/>
+      <c r="A813" s="90"/>
     </row>
     <row r="814">
-      <c r="A814" s="89"/>
+      <c r="A814" s="90"/>
     </row>
     <row r="815">
-      <c r="A815" s="89"/>
+      <c r="A815" s="90"/>
     </row>
     <row r="816">
-      <c r="A816" s="89"/>
+      <c r="A816" s="90"/>
     </row>
     <row r="817">
-      <c r="A817" s="89"/>
+      <c r="A817" s="90"/>
     </row>
     <row r="818">
-      <c r="A818" s="89"/>
+      <c r="A818" s="90"/>
     </row>
     <row r="819">
-      <c r="A819" s="89"/>
+      <c r="A819" s="90"/>
     </row>
     <row r="820">
-      <c r="A820" s="89"/>
+      <c r="A820" s="90"/>
     </row>
     <row r="821">
-      <c r="A821" s="89"/>
+      <c r="A821" s="90"/>
     </row>
     <row r="822">
-      <c r="A822" s="89"/>
+      <c r="A822" s="90"/>
     </row>
     <row r="823">
-      <c r="A823" s="89"/>
+      <c r="A823" s="90"/>
     </row>
     <row r="824">
-      <c r="A824" s="89"/>
+      <c r="A824" s="90"/>
     </row>
     <row r="825">
-      <c r="A825" s="89"/>
+      <c r="A825" s="90"/>
     </row>
     <row r="826">
-      <c r="A826" s="89"/>
+      <c r="A826" s="90"/>
     </row>
     <row r="827">
-      <c r="A827" s="89"/>
+      <c r="A827" s="90"/>
     </row>
     <row r="828">
-      <c r="A828" s="89"/>
+      <c r="A828" s="90"/>
     </row>
     <row r="829">
-      <c r="A829" s="89"/>
+      <c r="A829" s="90"/>
     </row>
     <row r="830">
-      <c r="A830" s="89"/>
+      <c r="A830" s="90"/>
     </row>
     <row r="831">
-      <c r="A831" s="89"/>
+      <c r="A831" s="90"/>
     </row>
     <row r="832">
-      <c r="A832" s="89"/>
+      <c r="A832" s="90"/>
     </row>
     <row r="833">
-      <c r="A833" s="89"/>
+      <c r="A833" s="90"/>
     </row>
     <row r="834">
-      <c r="A834" s="89"/>
+      <c r="A834" s="90"/>
     </row>
     <row r="835">
-      <c r="A835" s="89"/>
+      <c r="A835" s="90"/>
     </row>
     <row r="836">
-      <c r="A836" s="89"/>
+      <c r="A836" s="90"/>
     </row>
     <row r="837">
-      <c r="A837" s="89"/>
+      <c r="A837" s="90"/>
     </row>
     <row r="838">
-      <c r="A838" s="89"/>
+      <c r="A838" s="90"/>
     </row>
     <row r="839">
-      <c r="A839" s="89"/>
+      <c r="A839" s="90"/>
     </row>
     <row r="840">
-      <c r="A840" s="89"/>
+      <c r="A840" s="90"/>
     </row>
     <row r="841">
-      <c r="A841" s="89"/>
+      <c r="A841" s="90"/>
     </row>
     <row r="842">
-      <c r="A842" s="89"/>
+      <c r="A842" s="90"/>
     </row>
     <row r="843">
-      <c r="A843" s="89"/>
+      <c r="A843" s="90"/>
     </row>
     <row r="844">
-      <c r="A844" s="89"/>
+      <c r="A844" s="90"/>
     </row>
     <row r="845">
-      <c r="A845" s="89"/>
+      <c r="A845" s="90"/>
     </row>
     <row r="846">
-      <c r="A846" s="89"/>
+      <c r="A846" s="90"/>
     </row>
     <row r="847">
-      <c r="A847" s="89"/>
+      <c r="A847" s="90"/>
     </row>
     <row r="848">
-      <c r="A848" s="89"/>
+      <c r="A848" s="90"/>
     </row>
     <row r="849">
-      <c r="A849" s="89"/>
+      <c r="A849" s="90"/>
     </row>
     <row r="850">
-      <c r="A850" s="89"/>
+      <c r="A850" s="90"/>
     </row>
     <row r="851">
-      <c r="A851" s="89"/>
+      <c r="A851" s="90"/>
     </row>
     <row r="852">
-      <c r="A852" s="89"/>
+      <c r="A852" s="90"/>
     </row>
     <row r="853">
-      <c r="A853" s="89"/>
+      <c r="A853" s="90"/>
     </row>
     <row r="854">
-      <c r="A854" s="89"/>
+      <c r="A854" s="90"/>
     </row>
     <row r="855">
-      <c r="A855" s="89"/>
+      <c r="A855" s="90"/>
     </row>
     <row r="856">
-      <c r="A856" s="89"/>
+      <c r="A856" s="90"/>
     </row>
     <row r="857">
-      <c r="A857" s="89"/>
+      <c r="A857" s="90"/>
     </row>
     <row r="858">
-      <c r="A858" s="89"/>
+      <c r="A858" s="90"/>
     </row>
     <row r="859">
-      <c r="A859" s="89"/>
+      <c r="A859" s="90"/>
     </row>
     <row r="860">
-      <c r="A860" s="89"/>
+      <c r="A860" s="90"/>
     </row>
     <row r="861">
-      <c r="A861" s="89"/>
+      <c r="A861" s="90"/>
     </row>
     <row r="862">
-      <c r="A862" s="89"/>
+      <c r="A862" s="90"/>
     </row>
     <row r="863">
-      <c r="A863" s="89"/>
+      <c r="A863" s="90"/>
     </row>
     <row r="864">
-      <c r="A864" s="89"/>
+      <c r="A864" s="90"/>
     </row>
     <row r="865">
-      <c r="A865" s="89"/>
+      <c r="A865" s="90"/>
     </row>
     <row r="866">
-      <c r="A866" s="89"/>
+      <c r="A866" s="90"/>
     </row>
     <row r="867">
-      <c r="A867" s="89"/>
+      <c r="A867" s="90"/>
     </row>
     <row r="868">
-      <c r="A868" s="89"/>
+      <c r="A868" s="90"/>
     </row>
     <row r="869">
-      <c r="A869" s="89"/>
+      <c r="A869" s="90"/>
     </row>
     <row r="870">
-      <c r="A870" s="89"/>
+      <c r="A870" s="90"/>
     </row>
     <row r="871">
-      <c r="A871" s="89"/>
+      <c r="A871" s="90"/>
     </row>
     <row r="872">
-      <c r="A872" s="89"/>
+      <c r="A872" s="90"/>
     </row>
     <row r="873">
-      <c r="A873" s="89"/>
+      <c r="A873" s="90"/>
     </row>
     <row r="874">
-      <c r="A874" s="89"/>
+      <c r="A874" s="90"/>
     </row>
     <row r="875">
-      <c r="A875" s="89"/>
+      <c r="A875" s="90"/>
     </row>
     <row r="876">
-      <c r="A876" s="89"/>
+      <c r="A876" s="90"/>
     </row>
     <row r="877">
-      <c r="A877" s="89"/>
+      <c r="A877" s="90"/>
     </row>
     <row r="878">
-      <c r="A878" s="89"/>
+      <c r="A878" s="90"/>
     </row>
     <row r="879">
-      <c r="A879" s="89"/>
+      <c r="A879" s="90"/>
     </row>
     <row r="880">
-      <c r="A880" s="89"/>
+      <c r="A880" s="90"/>
     </row>
     <row r="881">
-      <c r="A881" s="89"/>
+      <c r="A881" s="90"/>
     </row>
     <row r="882">
-      <c r="A882" s="89"/>
+      <c r="A882" s="90"/>
     </row>
     <row r="883">
-      <c r="A883" s="89"/>
+      <c r="A883" s="90"/>
     </row>
     <row r="884">
-      <c r="A884" s="89"/>
+      <c r="A884" s="90"/>
     </row>
     <row r="885">
-      <c r="A885" s="89"/>
+      <c r="A885" s="90"/>
     </row>
     <row r="886">
-      <c r="A886" s="89"/>
+      <c r="A886" s="90"/>
     </row>
     <row r="887">
-      <c r="A887" s="89"/>
+      <c r="A887" s="90"/>
     </row>
     <row r="888">
-      <c r="A888" s="89"/>
+      <c r="A888" s="90"/>
     </row>
     <row r="889">
-      <c r="A889" s="89"/>
+      <c r="A889" s="90"/>
     </row>
     <row r="890">
-      <c r="A890" s="89"/>
+      <c r="A890" s="90"/>
     </row>
     <row r="891">
-      <c r="A891" s="89"/>
+      <c r="A891" s="90"/>
     </row>
     <row r="892">
-      <c r="A892" s="89"/>
+      <c r="A892" s="90"/>
     </row>
     <row r="893">
-      <c r="A893" s="89"/>
+      <c r="A893" s="90"/>
     </row>
     <row r="894">
-      <c r="A894" s="89"/>
+      <c r="A894" s="90"/>
     </row>
     <row r="895">
-      <c r="A895" s="89"/>
+      <c r="A895" s="90"/>
     </row>
     <row r="896">
-      <c r="A896" s="89"/>
+      <c r="A896" s="90"/>
     </row>
     <row r="897">
-      <c r="A897" s="89"/>
+      <c r="A897" s="90"/>
     </row>
     <row r="898">
-      <c r="A898" s="89"/>
+      <c r="A898" s="90"/>
     </row>
     <row r="899">
-      <c r="A899" s="89"/>
+      <c r="A899" s="90"/>
     </row>
     <row r="900">
-      <c r="A900" s="89"/>
+      <c r="A900" s="90"/>
     </row>
     <row r="901">
-      <c r="A901" s="89"/>
+      <c r="A901" s="90"/>
     </row>
     <row r="902">
-      <c r="A902" s="89"/>
+      <c r="A902" s="90"/>
     </row>
     <row r="903">
-      <c r="A903" s="89"/>
+      <c r="A903" s="90"/>
     </row>
     <row r="904">
-      <c r="A904" s="89"/>
+      <c r="A904" s="90"/>
     </row>
     <row r="905">
-      <c r="A905" s="89"/>
+      <c r="A905" s="90"/>
     </row>
     <row r="906">
-      <c r="A906" s="89"/>
+      <c r="A906" s="90"/>
     </row>
     <row r="907">
-      <c r="A907" s="89"/>
+      <c r="A907" s="90"/>
     </row>
     <row r="908">
-      <c r="A908" s="89"/>
+      <c r="A908" s="90"/>
     </row>
     <row r="909">
-      <c r="A909" s="89"/>
+      <c r="A909" s="90"/>
     </row>
     <row r="910">
-      <c r="A910" s="89"/>
+      <c r="A910" s="90"/>
     </row>
     <row r="911">
-      <c r="A911" s="89"/>
+      <c r="A911" s="90"/>
     </row>
     <row r="912">
-      <c r="A912" s="89"/>
+      <c r="A912" s="90"/>
     </row>
     <row r="913">
-      <c r="A913" s="89"/>
+      <c r="A913" s="90"/>
     </row>
     <row r="914">
-      <c r="A914" s="89"/>
+      <c r="A914" s="90"/>
     </row>
     <row r="915">
-      <c r="A915" s="89"/>
+      <c r="A915" s="90"/>
     </row>
     <row r="916">
-      <c r="A916" s="89"/>
+      <c r="A916" s="90"/>
     </row>
     <row r="917">
-      <c r="A917" s="89"/>
+      <c r="A917" s="90"/>
     </row>
     <row r="918">
-      <c r="A918" s="89"/>
+      <c r="A918" s="90"/>
     </row>
     <row r="919">
-      <c r="A919" s="89"/>
+      <c r="A919" s="90"/>
     </row>
     <row r="920">
-      <c r="A920" s="89"/>
+      <c r="A920" s="90"/>
     </row>
     <row r="921">
-      <c r="A921" s="89"/>
+      <c r="A921" s="90"/>
     </row>
     <row r="922">
-      <c r="A922" s="89"/>
+      <c r="A922" s="90"/>
     </row>
     <row r="923">
-      <c r="A923" s="89"/>
+      <c r="A923" s="90"/>
     </row>
     <row r="924">
-      <c r="A924" s="89"/>
+      <c r="A924" s="90"/>
     </row>
     <row r="925">
-      <c r="A925" s="89"/>
+      <c r="A925" s="90"/>
     </row>
     <row r="926">
-      <c r="A926" s="89"/>
+      <c r="A926" s="90"/>
     </row>
     <row r="927">
-      <c r="A927" s="89"/>
+      <c r="A927" s="90"/>
     </row>
     <row r="928">
-      <c r="A928" s="89"/>
+      <c r="A928" s="90"/>
     </row>
     <row r="929">
-      <c r="A929" s="89"/>
+      <c r="A929" s="90"/>
     </row>
     <row r="930">
-      <c r="A930" s="89"/>
+      <c r="A930" s="90"/>
     </row>
     <row r="931">
-      <c r="A931" s="89"/>
+      <c r="A931" s="90"/>
     </row>
     <row r="932">
-      <c r="A932" s="89"/>
+      <c r="A932" s="90"/>
     </row>
     <row r="933">
-      <c r="A933" s="89"/>
+      <c r="A933" s="90"/>
     </row>
     <row r="934">
-      <c r="A934" s="89"/>
+      <c r="A934" s="90"/>
     </row>
     <row r="935">
-      <c r="A935" s="89"/>
+      <c r="A935" s="90"/>
     </row>
     <row r="936">
-      <c r="A936" s="89"/>
+      <c r="A936" s="90"/>
     </row>
     <row r="937">
-      <c r="A937" s="89"/>
+      <c r="A937" s="90"/>
     </row>
     <row r="938">
-      <c r="A938" s="89"/>
+      <c r="A938" s="90"/>
     </row>
     <row r="939">
-      <c r="A939" s="89"/>
+      <c r="A939" s="90"/>
     </row>
     <row r="940">
-      <c r="A940" s="89"/>
+      <c r="A940" s="90"/>
     </row>
     <row r="941">
-      <c r="A941" s="89"/>
+      <c r="A941" s="90"/>
     </row>
     <row r="942">
-      <c r="A942" s="89"/>
+      <c r="A942" s="90"/>
     </row>
     <row r="943">
-      <c r="A943" s="89"/>
+      <c r="A943" s="90"/>
     </row>
     <row r="944">
-      <c r="A944" s="89"/>
+      <c r="A944" s="90"/>
     </row>
     <row r="945">
-      <c r="A945" s="89"/>
+      <c r="A945" s="90"/>
     </row>
     <row r="946">
-      <c r="A946" s="89"/>
+      <c r="A946" s="90"/>
     </row>
     <row r="947">
-      <c r="A947" s="89"/>
+      <c r="A947" s="90"/>
     </row>
     <row r="948">
-      <c r="A948" s="89"/>
+      <c r="A948" s="90"/>
     </row>
     <row r="949">
-      <c r="A949" s="89"/>
+      <c r="A949" s="90"/>
     </row>
     <row r="950">
-      <c r="A950" s="89"/>
+      <c r="A950" s="90"/>
     </row>
     <row r="951">
-      <c r="A951" s="89"/>
+      <c r="A951" s="90"/>
     </row>
     <row r="952">
-      <c r="A952" s="89"/>
+      <c r="A952" s="90"/>
     </row>
     <row r="953">
-      <c r="A953" s="89"/>
+      <c r="A953" s="90"/>
     </row>
     <row r="954">
-      <c r="A954" s="89"/>
+      <c r="A954" s="90"/>
     </row>
     <row r="955">
-      <c r="A955" s="89"/>
+      <c r="A955" s="90"/>
     </row>
     <row r="956">
-      <c r="A956" s="89"/>
+      <c r="A956" s="90"/>
     </row>
     <row r="957">
-      <c r="A957" s="89"/>
+      <c r="A957" s="90"/>
     </row>
     <row r="958">
-      <c r="A958" s="89"/>
+      <c r="A958" s="90"/>
     </row>
     <row r="959">
-      <c r="A959" s="89"/>
+      <c r="A959" s="90"/>
     </row>
     <row r="960">
-      <c r="A960" s="89"/>
+      <c r="A960" s="90"/>
     </row>
     <row r="961">
-      <c r="A961" s="89"/>
+      <c r="A961" s="90"/>
     </row>
     <row r="962">
-      <c r="A962" s="89"/>
+      <c r="A962" s="90"/>
     </row>
     <row r="963">
-      <c r="A963" s="89"/>
+      <c r="A963" s="90"/>
     </row>
     <row r="964">
-      <c r="A964" s="89"/>
+      <c r="A964" s="90"/>
     </row>
     <row r="965">
-      <c r="A965" s="89"/>
+      <c r="A965" s="90"/>
     </row>
     <row r="966">
-      <c r="A966" s="89"/>
+      <c r="A966" s="90"/>
     </row>
     <row r="967">
-      <c r="A967" s="89"/>
+      <c r="A967" s="90"/>
     </row>
     <row r="968">
-      <c r="A968" s="89"/>
+      <c r="A968" s="90"/>
     </row>
     <row r="969">
-      <c r="A969" s="89"/>
+      <c r="A969" s="90"/>
     </row>
     <row r="970">
-      <c r="A970" s="89"/>
+      <c r="A970" s="90"/>
     </row>
     <row r="971">
-      <c r="A971" s="89"/>
+      <c r="A971" s="90"/>
     </row>
     <row r="972">
-      <c r="A972" s="89"/>
+      <c r="A972" s="90"/>
     </row>
     <row r="973">
-      <c r="A973" s="89"/>
+      <c r="A973" s="90"/>
     </row>
     <row r="974">
-      <c r="A974" s="89"/>
+      <c r="A974" s="90"/>
     </row>
     <row r="975">
-      <c r="A975" s="89"/>
+      <c r="A975" s="90"/>
     </row>
     <row r="976">
-      <c r="A976" s="89"/>
+      <c r="A976" s="90"/>
     </row>
     <row r="977">
-      <c r="A977" s="89"/>
+      <c r="A977" s="90"/>
     </row>
     <row r="978">
-      <c r="A978" s="89"/>
+      <c r="A978" s="90"/>
     </row>
     <row r="979">
-      <c r="A979" s="89"/>
+      <c r="A979" s="90"/>
     </row>
     <row r="980">
-      <c r="A980" s="89"/>
+      <c r="A980" s="90"/>
     </row>
     <row r="981">
-      <c r="A981" s="89"/>
+      <c r="A981" s="90"/>
     </row>
     <row r="982">
-      <c r="A982" s="89"/>
+      <c r="A982" s="90"/>
     </row>
     <row r="983">
-      <c r="A983" s="89"/>
+      <c r="A983" s="90"/>
     </row>
     <row r="984">
-      <c r="A984" s="89"/>
+      <c r="A984" s="90"/>
     </row>
     <row r="985">
-      <c r="A985" s="89"/>
+      <c r="A985" s="90"/>
     </row>
     <row r="986">
-      <c r="A986" s="89"/>
+      <c r="A986" s="90"/>
     </row>
     <row r="987">
-      <c r="A987" s="89"/>
+      <c r="A987" s="90"/>
     </row>
     <row r="988">
-      <c r="A988" s="89"/>
+      <c r="A988" s="90"/>
     </row>
     <row r="989">
-      <c r="A989" s="89"/>
+      <c r="A989" s="90"/>
     </row>
     <row r="990">
-      <c r="A990" s="89"/>
+      <c r="A990" s="90"/>
     </row>
     <row r="991">
-      <c r="A991" s="89"/>
+      <c r="A991" s="90"/>
     </row>
     <row r="992">
-      <c r="A992" s="89"/>
+      <c r="A992" s="90"/>
     </row>
     <row r="993">
-      <c r="A993" s="89"/>
+      <c r="A993" s="90"/>
     </row>
     <row r="994">
-      <c r="A994" s="89"/>
+      <c r="A994" s="90"/>
     </row>
     <row r="995">
-      <c r="A995" s="89"/>
+      <c r="A995" s="90"/>
     </row>
     <row r="996">
-      <c r="A996" s="89"/>
+      <c r="A996" s="90"/>
     </row>
     <row r="997">
-      <c r="A997" s="89"/>
+      <c r="A997" s="90"/>
     </row>
     <row r="998">
-      <c r="A998" s="89"/>
+      <c r="A998" s="90"/>
     </row>
     <row r="999">
-      <c r="A999" s="89"/>
+      <c r="A999" s="90"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="89"/>
+      <c r="A1000" s="90"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -41628,7 +41692,7 @@
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -41667,10 +41731,10 @@
         <v>87</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
@@ -41687,7 +41751,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -41702,7 +41766,7 @@
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -41714,7 +41778,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -41743,7 +41807,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -41754,7 +41818,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -41769,10 +41833,10 @@
         <v>162</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
@@ -41789,7 +41853,7 @@
         <v>308</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
@@ -41803,7 +41867,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
@@ -41817,25 +41881,25 @@
         <v>108</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="75">
         <v>44470.0</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>281</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -41852,15 +41916,15 @@
       <c r="A14" s="75">
         <v>45597.0</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="92" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -42028,7 +42092,7 @@
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -42067,10 +42131,10 @@
         <v>154</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
@@ -42085,7 +42149,7 @@
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
@@ -42097,7 +42161,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -42112,7 +42176,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -42149,7 +42213,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8">
@@ -42163,10 +42227,10 @@
         <v>162</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -42183,7 +42247,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -42194,7 +42258,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
@@ -42209,10 +42273,10 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -42231,19 +42295,19 @@
         <v>43748.0</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -42366,7 +42430,7 @@
         <v>42100.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="5" t="s">
@@ -42405,10 +42469,10 @@
         <v>87</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
@@ -42435,7 +42499,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -42450,7 +42514,7 @@
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
@@ -42462,7 +42526,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -42529,7 +42593,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -42544,7 +42608,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -42555,7 +42619,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O10" s="5"/>
     </row>
@@ -42570,10 +42634,10 @@
         <v>162</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
@@ -42590,10 +42654,10 @@
         <v>308</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
@@ -42607,7 +42671,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -42621,7 +42685,7 @@
         <v>108</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
@@ -42629,19 +42693,19 @@
         <v>43748.0</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>308</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -42649,14 +42713,18 @@
         <v>43900.0</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>370</v>
+        <v>198</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="O16" s="45" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -42814,7 +42882,7 @@
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N5" s="46" t="s">
         <v>373</v>
@@ -42834,7 +42902,7 @@
         <v>374</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>373</v>
@@ -46002,7 +46070,7 @@
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>373</v>
@@ -46022,7 +46090,7 @@
         <v>374</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>373</v>
@@ -50153,7 +50221,7 @@
       <c r="B4" s="51">
         <v>42251.0</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="46" t="s">
@@ -50171,7 +50239,7 @@
       <c r="B5" s="51">
         <v>42255.0</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="93" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -50193,7 +50261,7 @@
         <v>377</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N6" s="46"/>
     </row>
@@ -50211,7 +50279,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -50233,7 +50301,7 @@
       <c r="B8" s="51">
         <v>42527.0</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="5"/>
@@ -50280,7 +50348,7 @@
         <v>162</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="46" t="s">
@@ -50298,7 +50366,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N11" s="46"/>
     </row>
@@ -54402,7 +54470,7 @@
       <c r="B4" s="51">
         <v>42255.0</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
@@ -54427,7 +54495,7 @@
       <c r="B5" s="51">
         <v>42321.0</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -54454,7 +54522,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>383</v>
@@ -54474,7 +54542,7 @@
         <v>384</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>383</v>
@@ -54534,7 +54602,7 @@
         <v>387</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N10" s="46" t="s">
         <v>383</v>
@@ -54549,7 +54617,7 @@
         <v>108</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -54713,7 +54781,7 @@
       <c r="B4" s="51">
         <v>42321.0</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="46" t="s">
@@ -54740,7 +54808,7 @@
         <v>187</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N5" s="46" t="s">
         <v>383</v>
@@ -54760,7 +54828,7 @@
         <v>384</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N6" s="46" t="s">
         <v>383</v>
@@ -54831,7 +54899,7 @@
         <v>392</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -54856,7 +54924,7 @@
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -59919,7 +59987,7 @@
       <c r="E3" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="94" t="s">
         <v>396</v>
       </c>
     </row>
@@ -60045,7 +60113,7 @@
       <c r="C2" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="O2" s="95" t="s">
         <v>402</v>
       </c>
     </row>
@@ -60062,7 +60130,7 @@
       <c r="E3" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="O3" s="95" t="s">
+      <c r="O3" s="96" t="s">
         <v>403</v>
       </c>
     </row>
@@ -60137,7 +60205,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="96"/>
+      <c r="A3" s="97"/>
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
@@ -60145,7 +60213,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
@@ -60233,7 +60301,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="96"/>
+      <c r="A23" s="97"/>
     </row>
     <row r="24">
       <c r="A24" s="58" t="s">
@@ -63556,6 +63624,758 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="3" width="10.56"/>
+    <col customWidth="1" min="4" max="4" width="20.11"/>
+    <col customWidth="1" min="5" max="26" width="10.56"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="2">
+        <v>415.0</v>
+      </c>
+      <c r="I1" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1625.0</v>
+      </c>
+      <c r="K1" s="2">
+        <v>675.0</v>
+      </c>
+      <c r="L1" s="2">
+        <v>860.0</v>
+      </c>
+      <c r="M1" s="2">
+        <v>940.0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="51">
+        <v>40997.0</v>
+      </c>
+      <c r="B2" s="51">
+        <v>40997.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51">
+        <v>41086.0</v>
+      </c>
+      <c r="B3" s="51">
+        <v>41086.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" ht="180.0" customHeight="1">
+      <c r="A4" s="51">
+        <v>41088.0</v>
+      </c>
+      <c r="B4" s="51">
+        <v>41089.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="51">
+        <v>41088.0</v>
+      </c>
+      <c r="B5" s="51">
+        <v>41159.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" ht="135.0" customHeight="1">
+      <c r="A6" s="51">
+        <v>41158.0</v>
+      </c>
+      <c r="B6" s="51">
+        <v>41159.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" ht="408.75" customHeight="1">
+      <c r="A7" s="51">
+        <v>41165.0</v>
+      </c>
+      <c r="B7" s="51">
+        <v>41248.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="51">
+        <v>41197.0</v>
+      </c>
+      <c r="B8" s="51">
+        <v>41197.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="51">
+        <v>41283.0</v>
+      </c>
+      <c r="B9" s="51">
+        <v>41320.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="51">
+        <v>41451.0</v>
+      </c>
+      <c r="B10" s="51">
+        <v>41451.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" ht="180.0" customHeight="1">
+      <c r="A11" s="51">
+        <v>41467.0</v>
+      </c>
+      <c r="B11" s="51">
+        <v>41485.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="51">
+        <v>41485.0</v>
+      </c>
+      <c r="B12" s="51">
+        <v>41485.0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>633.0</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="51">
+        <v>41514.0</v>
+      </c>
+      <c r="B13" s="51">
+        <v>41543.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="51">
+        <v>41564.0</v>
+      </c>
+      <c r="B14" s="51">
+        <v>41564.0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" s="46">
+        <v>633.0</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" ht="225.0" customHeight="1">
+      <c r="A15" s="51">
+        <v>41568.0</v>
+      </c>
+      <c r="B15" s="51">
+        <v>41813.0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="51">
+        <v>41813.0</v>
+      </c>
+      <c r="B16" s="51">
+        <v>41871.0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="51">
+        <v>41905.0</v>
+      </c>
+      <c r="B17" s="51">
+        <v>41905.0</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="51">
+        <v>41920.0</v>
+      </c>
+      <c r="B18" s="51">
+        <v>42296.0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="51">
+        <v>42381.0</v>
+      </c>
+      <c r="B19" s="51">
+        <v>42381.0</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" ht="90.0" customHeight="1">
+      <c r="A20" s="51">
+        <v>42017.0</v>
+      </c>
+      <c r="B20" s="51">
+        <v>42395.0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="51">
+        <v>42395.0</v>
+      </c>
+      <c r="B21" s="51">
+        <v>42401.0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="51">
+        <v>42409.0</v>
+      </c>
+      <c r="B22" s="53">
+        <v>42864.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="55">
+        <v>42870.0</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="55">
+        <v>42879.0</v>
+      </c>
+      <c r="B24" s="60">
+        <v>42879.0</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="55">
+        <v>42886.0</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -63760,7 +64580,7 @@
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -63795,10 +64615,10 @@
         <v>219</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -63810,7 +64630,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -63832,13 +64652,13 @@
         <v>41248.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -63850,7 +64670,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -63872,7 +64692,7 @@
         <v>41197.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="5" t="s">
@@ -63908,11 +64728,11 @@
         <v>41320.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -63924,7 +64744,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -63946,11 +64766,11 @@
         <v>41451.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -63961,7 +64781,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>15</v>
@@ -63986,10 +64806,10 @@
         <v>41485.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
@@ -64002,7 +64822,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -64028,7 +64848,7 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -64042,7 +64862,7 @@
         <v>633.0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -64064,7 +64884,7 @@
         <v>41543.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="5"/>
@@ -64102,13 +64922,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N14" s="46">
         <v>633.0</v>
       </c>
       <c r="O14" s="46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" ht="90.0" customHeight="1">
@@ -64122,7 +64942,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>190</v>
@@ -64144,7 +64964,7 @@
         <v>188</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O16" s="46" t="s">
         <v>188</v>
@@ -64162,13 +64982,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
@@ -64179,14 +64999,14 @@
         <v>42296.0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
@@ -64201,13 +65021,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O19" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
@@ -64221,13 +65041,13 @@
         <v>41</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N20" s="54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -64242,7 +65062,7 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N21" s="46"/>
     </row>
@@ -64254,7 +65074,7 @@
         <v>42864.0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="5" t="s">
@@ -64274,7 +65094,7 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N23" s="46"/>
     </row>
@@ -64293,7 +65113,7 @@
         <v>248</v>
       </c>
       <c r="N24" s="54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -64311,10 +65131,10 @@
         <v>17</v>
       </c>
       <c r="N25" s="54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
@@ -71142,758 +71962,6 @@
       <c r="D1000" s="52"/>
       <c r="E1000" s="5"/>
       <c r="N1000" s="46"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="3" width="10.56"/>
-    <col customWidth="1" min="4" max="4" width="20.11"/>
-    <col customWidth="1" min="5" max="26" width="10.56"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="2">
-        <v>415.0</v>
-      </c>
-      <c r="I1" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1625.0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>675.0</v>
-      </c>
-      <c r="L1" s="2">
-        <v>860.0</v>
-      </c>
-      <c r="M1" s="2">
-        <v>940.0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="51">
-        <v>40997.0</v>
-      </c>
-      <c r="B2" s="51">
-        <v>40997.0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="51">
-        <v>41086.0</v>
-      </c>
-      <c r="B3" s="51">
-        <v>41086.0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" ht="180.0" customHeight="1">
-      <c r="A4" s="51">
-        <v>41088.0</v>
-      </c>
-      <c r="B4" s="51">
-        <v>41089.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="51">
-        <v>41088.0</v>
-      </c>
-      <c r="B5" s="51">
-        <v>41159.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" ht="135.0" customHeight="1">
-      <c r="A6" s="51">
-        <v>41158.0</v>
-      </c>
-      <c r="B6" s="51">
-        <v>41159.0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" ht="408.75" customHeight="1">
-      <c r="A7" s="51">
-        <v>41165.0</v>
-      </c>
-      <c r="B7" s="51">
-        <v>41248.0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="51">
-        <v>41197.0</v>
-      </c>
-      <c r="B8" s="51">
-        <v>41197.0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="51">
-        <v>41283.0</v>
-      </c>
-      <c r="B9" s="51">
-        <v>41320.0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="51">
-        <v>41451.0</v>
-      </c>
-      <c r="B10" s="51">
-        <v>41451.0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" ht="180.0" customHeight="1">
-      <c r="A11" s="51">
-        <v>41467.0</v>
-      </c>
-      <c r="B11" s="51">
-        <v>41485.0</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="51">
-        <v>41485.0</v>
-      </c>
-      <c r="B12" s="51">
-        <v>41485.0</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>633.0</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="51">
-        <v>41514.0</v>
-      </c>
-      <c r="B13" s="51">
-        <v>41543.0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="51">
-        <v>41564.0</v>
-      </c>
-      <c r="B14" s="51">
-        <v>41564.0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N14" s="46">
-        <v>633.0</v>
-      </c>
-      <c r="O14" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" ht="225.0" customHeight="1">
-      <c r="A15" s="51">
-        <v>41568.0</v>
-      </c>
-      <c r="B15" s="51">
-        <v>41813.0</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="51">
-        <v>41813.0</v>
-      </c>
-      <c r="B16" s="51">
-        <v>41871.0</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="O16" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="51">
-        <v>41905.0</v>
-      </c>
-      <c r="B17" s="51">
-        <v>41905.0</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N17" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="O17" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="51">
-        <v>41920.0</v>
-      </c>
-      <c r="B18" s="51">
-        <v>42296.0</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="51">
-        <v>42381.0</v>
-      </c>
-      <c r="B19" s="51">
-        <v>42381.0</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" ht="90.0" customHeight="1">
-      <c r="A20" s="51">
-        <v>42017.0</v>
-      </c>
-      <c r="B20" s="51">
-        <v>42395.0</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="51">
-        <v>42395.0</v>
-      </c>
-      <c r="B21" s="51">
-        <v>42401.0</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="51">
-        <v>42409.0</v>
-      </c>
-      <c r="B22" s="53">
-        <v>42864.0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="55">
-        <v>42870.0</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="55">
-        <v>42879.0</v>
-      </c>
-      <c r="B24" s="60">
-        <v>42879.0</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="N24" s="46"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="55">
-        <v>42886.0</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="O25" s="45" t="s">
-        <v>251</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
